--- a/Classeur1.xlsx
+++ b/Classeur1.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Classeur1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>F_Tab</t>
   </si>
@@ -31,6 +31,9 @@
   </si>
   <si>
     <t>Rc</t>
+  </si>
+  <si>
+    <t>quantum</t>
   </si>
 </sst>
 </file>
@@ -631,7 +634,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Classeur1!$C$11</c:f>
+              <c:f>Classeur1!$C$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -666,7 +669,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Classeur1!$D$10:$Q$10</c:f>
+              <c:f>Classeur1!$D$11:$Q$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -717,7 +720,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Classeur1!$D$11:$Q$11</c:f>
+              <c:f>Classeur1!$D$12:$Q$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -953,7 +956,2855 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Classeur1!$A$19:$DX$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="128"/>
+                <c:pt idx="0">
+                  <c:v>52000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52409.448818897639</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52825.396825396827</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53248</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53677.419354838712</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>54113.82113821138</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>54557.37704918033</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55008.264462809915</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55466.666666666664</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55932.773109243695</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>56406.779661016946</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>56888.888888888891</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>57379.310344827587</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>57878.260869565216</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>58385.964912280702</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>58902.654867256635</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>59428.571428571428</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>59963.963963963964</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>60509.090909090912</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>61064.220183486235</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>61629.629629629628</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>62205.607476635516</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>62792.452830188682</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>63390.476190476191</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>64000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>64621.359223300969</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>65254.901960784315</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>65900.990099009898</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>66560</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>67232.323232323237</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>67918.367346938772</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>68618.556701030931</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>69333.333333333328</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>70063.15789473684</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>70808.51063829787</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>71569.892473118278</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>72347.826086956527</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>73142.857142857145</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>73955.555555555562</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>74786.516853932582</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>75636.363636363632</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>76505.747126436778</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>77395.348837209298</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>78305.882352941175</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>79238.095238095237</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>80192.77108433735</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>81170.731707317071</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>82172.839506172837</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>83200</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>84253.16455696203</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>85333.333333333328</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>86441.558441558445</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>87578.947368421053</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>88746.666666666672</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>89945.945945945947</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>91178.082191780821</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>92444.444444444438</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>93746.478873239437</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>95085.71428571429</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>96463.768115942032</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>97882.352941176476</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>99343.283582089556</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>100848.48484848485</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>102400</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>104000</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>105650.79365079365</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>107354.83870967742</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>109114.75409836066</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>110933.33333333333</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>112813.55932203389</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>114758.62068965517</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>116771.9298245614</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>118857.14285714286</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>121018.18181818182</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>123259.25925925926</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>125584.90566037736</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>128000</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>130509.80392156863</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>133120</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>135836.73469387754</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>138666.66666666666</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>141617.02127659574</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>144695.65217391305</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>147911.11111111112</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>151272.72727272726</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>154790.6976744186</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>158476.19047619047</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>162341.46341463414</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>166400</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>170666.66666666666</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>175157.89473684211</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>179891.89189189189</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>184888.88888888888</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>190171.42857142858</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>195764.70588235295</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>201696.9696969697</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>208000</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>214709.67741935485</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>221866.66666666666</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>229517.24137931035</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>237714.28571428571</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>246518.51851851851</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>256000</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>266240</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>277333.33333333331</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>289391.30434782611</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>302545.45454545453</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>316952.38095238095</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>332800</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>350315.78947368421</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>369777.77777777775</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>391529.4117647059</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>416000</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>443733.33333333331</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>475428.57142857142</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>512000</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>554666.66666666663</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>605090.90909090906</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>665600</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>739555.5555555555</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>832000</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>950857.14285714284</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1109333.3333333333</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1331200</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1664000</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2218666.6666666665</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>3328000</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>6656000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Classeur1!$A$20:$DX$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="128"/>
+                <c:pt idx="0">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2822.0472440944882</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2844.4444444444443</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2867.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2890.3225806451615</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2913.8211382113823</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2937.7049180327867</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2961.9834710743803</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2986.6666666666665</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3011.7647058823532</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3037.2881355932204</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3063.2478632478633</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3089.655172413793</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3116.521739130435</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3143.8596491228072</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3171.6814159292035</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3228.828828828829</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3258.181818181818</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3288.0733944954127</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3318.5185185185187</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3349.532710280374</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3381.132075471698</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3413.3333333333335</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3446.1538461538462</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3479.6116504854367</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3513.7254901960782</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3548.5148514851485</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3584</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3620.2020202020203</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3657.1428571428573</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3694.8453608247423</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3733.3333333333335</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3772.6315789473683</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3812.7659574468084</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3853.7634408602153</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3895.6521739130435</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3938.4615384615386</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3982.2222222222222</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4026.9662921348313</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4072.7272727272725</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4119.5402298850577</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4167.4418604651164</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4216.4705882352937</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4266.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4318.0722891566265</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4370.7317073170734</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4424.691358024691</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4480</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4536.7088607594933</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4594.8717948717949</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4654.545454545455</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4715.7894736842109</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4778.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4843.2432432432433</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4909.58904109589</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4977.7777777777774</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5047.8873239436616</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5120</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5194.202898550725</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5270.588235294118</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5349.253731343284</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5430.30303030303</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5513.8461538461543</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5688.8888888888887</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5780.6451612903229</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5875.4098360655735</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5973.333333333333</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6074.5762711864409</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>6179.3103448275861</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>6287.7192982456145</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>6516.363636363636</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6637.0370370370374</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>6762.2641509433961</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>6892.3076923076924</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7027.4509803921565</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7168</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7314.2857142857147</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>7466.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>7625.5319148936169</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>7791.304347826087</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>7964.4444444444443</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8145.454545454545</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8334.8837209302328</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8533.3333333333339</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8741.4634146341468</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8960</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>9189.7435897435898</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9431.5789473684217</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9686.4864864864867</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9955.5555555555547</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>10240</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>10541.176470588236</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>10860.60606060606</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>11200</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>11561.290322580646</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>11946.666666666666</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>12358.620689655172</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>12800</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>13274.074074074075</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>13784.615384615385</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>14336</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>14933.333333333334</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>15582.608695652174</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>16290.90909090909</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>17066.666666666668</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>17920</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>18863.157894736843</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>19911.111111111109</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>21082.352941176472</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>22400</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>23893.333333333332</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>25600</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>27569.23076923077</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>29866.666666666668</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>32581.81818181818</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>35840</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>39822.222222222219</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>44800</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>51200</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>59733.333333333336</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>71680</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>89600</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>119466.66666666667</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>179200</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>358400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-23CC-402F-9BF9-93003A56C0DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Classeur1!$A$19:$DX$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="128"/>
+                <c:pt idx="0">
+                  <c:v>52000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52409.448818897639</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52825.396825396827</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53248</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53677.419354838712</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>54113.82113821138</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>54557.37704918033</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55008.264462809915</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55466.666666666664</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55932.773109243695</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>56406.779661016946</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>56888.888888888891</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>57379.310344827587</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>57878.260869565216</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>58385.964912280702</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>58902.654867256635</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>59428.571428571428</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>59963.963963963964</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>60509.090909090912</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>61064.220183486235</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>61629.629629629628</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>62205.607476635516</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>62792.452830188682</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>63390.476190476191</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>64000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>64621.359223300969</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>65254.901960784315</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>65900.990099009898</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>66560</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>67232.323232323237</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>67918.367346938772</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>68618.556701030931</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>69333.333333333328</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>70063.15789473684</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>70808.51063829787</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>71569.892473118278</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>72347.826086956527</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>73142.857142857145</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>73955.555555555562</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>74786.516853932582</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>75636.363636363632</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>76505.747126436778</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>77395.348837209298</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>78305.882352941175</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>79238.095238095237</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>80192.77108433735</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>81170.731707317071</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>82172.839506172837</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>83200</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>84253.16455696203</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>85333.333333333328</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>86441.558441558445</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>87578.947368421053</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>88746.666666666672</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>89945.945945945947</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>91178.082191780821</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>92444.444444444438</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>93746.478873239437</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>95085.71428571429</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>96463.768115942032</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>97882.352941176476</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>99343.283582089556</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>100848.48484848485</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>102400</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>104000</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>105650.79365079365</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>107354.83870967742</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>109114.75409836066</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>110933.33333333333</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>112813.55932203389</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>114758.62068965517</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>116771.9298245614</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>118857.14285714286</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>121018.18181818182</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>123259.25925925926</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>125584.90566037736</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>128000</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>130509.80392156863</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>133120</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>135836.73469387754</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>138666.66666666666</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>141617.02127659574</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>144695.65217391305</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>147911.11111111112</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>151272.72727272726</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>154790.6976744186</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>158476.19047619047</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>162341.46341463414</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>166400</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>170666.66666666666</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>175157.89473684211</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>179891.89189189189</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>184888.88888888888</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>190171.42857142858</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>195764.70588235295</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>201696.9696969697</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>208000</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>214709.67741935485</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>221866.66666666666</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>229517.24137931035</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>237714.28571428571</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>246518.51851851851</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>256000</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>266240</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>277333.33333333331</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>289391.30434782611</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>302545.45454545453</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>316952.38095238095</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>332800</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>350315.78947368421</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>369777.77777777775</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>391529.4117647059</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>416000</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>443733.33333333331</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>475428.57142857142</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>512000</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>554666.66666666663</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>605090.90909090906</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>665600</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>739555.5555555555</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>832000</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>950857.14285714284</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1109333.3333333333</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1331200</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1664000</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2218666.6666666665</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>3328000</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>6656000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Classeur1!$A$21:$DX$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="128"/>
+                <c:pt idx="0">
+                  <c:v>8300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8365.354330708662</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8431.7460317460318</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8499.2000000000007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8567.7419354838712</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8637.3983739837404</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8708.1967213114749</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8780.1652892561979</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8853.3333333333339</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8927.731092436974</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9003.3898305084749</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9080.3418803418808</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9158.6206896551721</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9238.2608695652179</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9319.2982456140344</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9401.7699115044252</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9485.7142857142862</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9571.1711711711705</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9658.181818181818</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9746.7889908256875</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9837.0370370370365</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9928.9719626168226</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10022.641509433963</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10118.095238095239</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10215.384615384615</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10314.563106796117</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10415.686274509804</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10518.81188118812</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10624</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10731.313131313131</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10840.816326530612</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10952.577319587628</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>11066.666666666666</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>11183.157894736842</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>11302.127659574468</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>11423.655913978495</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>11547.826086956522</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>11674.725274725275</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>11804.444444444445</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>11937.078651685393</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>12072.727272727272</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>12211.494252873563</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>12353.488372093023</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>12498.823529411764</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>12647.619047619048</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>12800</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>12956.09756097561</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>13116.04938271605</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>13280</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>13448.101265822785</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>13620.51282051282</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>13797.402597402597</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>13978.947368421053</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>14165.333333333334</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>14356.756756756757</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>14553.424657534246</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>14755.555555555555</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>14963.380281690141</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>15177.142857142857</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>15397.101449275362</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>15623.529411764706</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>15856.716417910447</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>16096.969696969696</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>16344.615384615385</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>16600</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>16863.492063492064</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>17135.483870967742</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>17416.39344262295</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>17706.666666666668</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>18006.77966101695</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>18317.241379310344</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>18638.596491228069</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>18971.428571428572</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>19316.363636363636</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>19674.074074074073</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>20045.283018867925</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>20430.76923076923</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>20831.372549019608</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>21248</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>21681.632653061224</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>22133.333333333332</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>22604.255319148935</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>23095.652173913044</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>23608.888888888891</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>24145.454545454544</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>24706.976744186046</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>25295.238095238095</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>25912.195121951219</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>26560</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>27241.025641025641</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>27957.894736842107</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>28713.513513513513</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>29511.111111111109</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>30354.285714285714</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>31247.058823529413</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>32193.939393939392</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>33200</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>34270.967741935485</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>35413.333333333336</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>36634.482758620688</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>37942.857142857145</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>39348.148148148146</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>40861.538461538461</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>42496</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>44266.666666666664</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>46191.304347826088</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>48290.909090909088</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>50590.476190476191</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>53120</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>55915.789473684214</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>59022.222222222219</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>62494.117647058825</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>66400</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>70826.666666666672</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>75885.71428571429</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>81723.076923076922</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>88533.333333333328</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>96581.818181818177</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>106240</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>118044.44444444444</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>132800</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>151771.42857142858</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>177066.66666666666</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>212480</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>265600</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>354133.33333333331</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>531200</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1062400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-23CC-402F-9BF9-93003A56C0DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="591111120"/>
+        <c:axId val="591124432"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="591111120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="591124432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="591124432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="591111120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Classeur1!$A$2:$Z$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>2.48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Classeur1!$A$3:$Z$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>6499999.9999999944</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1299999.9999999988</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>649999.99999999942</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>433333.3333333336</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>325000.00000000006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>260000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>216666.66666666663</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>185714.28571428574</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>162500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>144444.44444444447</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>130000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>118181.81818181818</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>108333.33333333334</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>92857.14285714287</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>86666.666666666672</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>81250</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>76470.588235294126</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>72222.222222222219</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>68421.052631578947</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>65000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>61904.761904761901</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>59090.909090909088</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>56521.739130434784</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>54166.666666666672</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>52208.835341365455</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FF48-4AAB-91B0-7186590C36B7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Classeur1!$A$2:$Z$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>2.48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Classeur1!$A$4:$Z$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>349999.99999999971</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>69999.999999999942</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34999.999999999971</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23333.333333333347</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17500.000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11666.666666666664</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8750</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7777.7777777777783</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6363.6363636363631</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5833.3333333333339</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5384.6153846153848</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4666.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4375</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4117.6470588235297</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3888.8888888888887</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3684.2105263157896</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3333.333333333333</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3181.8181818181815</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3043.4782608695655</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2916.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2811.2449799196784</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FF48-4AAB-91B0-7186590C36B7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Classeur1!$A$2:$Z$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>2.48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Classeur1!$A$5:$Z$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>1037499.9999999991</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>207499.99999999983</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>103749.99999999991</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>69166.666666666701</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51875.000000000015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34583.333333333328</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29642.857142857145</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25937.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23055.555555555558</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20750</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18863.63636363636</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17291.666666666668</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15961.538461538461</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14821.428571428572</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13833.333333333334</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12968.75</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12205.882352941177</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11527.777777777777</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10921.052631578948</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10375</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9880.9523809523798</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9431.8181818181802</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9021.7391304347839</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8645.8333333333339</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8333.3333333333321</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FF48-4AAB-91B0-7186590C36B7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="594162000"/>
+        <c:axId val="594170736"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="594162000"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="594170736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="594170736"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="594162000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1509,20 +4360,1052 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1536,6 +5419,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>115</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>121</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Graphique 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>176211</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Graphique 12"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1807,15 +5750,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z11"/>
+  <dimension ref="A1:IV21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="Z3" sqref="Z3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>52000</v>
       </c>
@@ -1826,7 +5769,7 @@
         <v>8300</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2.48</v>
       </c>
@@ -1903,10 +5846,10 @@
         <v>0.1</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>$A1 *5/( 5-(2*A2))</f>
         <v>6499999.9999999944</v>
@@ -2009,10 +5952,10 @@
       </c>
       <c r="Z3">
         <f t="shared" si="0"/>
-        <v>52000</v>
+        <v>52208.835341365455</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>$B1 *5/( 5-(2*A2))</f>
         <v>349999.99999999971</v>
@@ -2115,10 +6058,10 @@
       </c>
       <c r="Z4">
         <f t="shared" si="1"/>
-        <v>2800</v>
+        <v>2811.2449799196784</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>$C1 *5/( 5-(2*A2))</f>
         <v>1037499.9999999991</v>
@@ -2221,104 +6164,39 @@
       </c>
       <c r="Z5">
         <f t="shared" si="2"/>
-        <v>8300</v>
+        <v>8333.3333333333321</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D6">
+    <row r="7" spans="1:256" x14ac:dyDescent="0.25">
+      <c r="D7">
         <v>1</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>2</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>3</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <v>4</v>
       </c>
-      <c r="H6">
+      <c r="H7">
         <v>5</v>
       </c>
-      <c r="I6">
+      <c r="I7">
         <v>6</v>
       </c>
-      <c r="J6">
+      <c r="J7">
         <v>7</v>
       </c>
-      <c r="K6">
+      <c r="K7">
         <v>8</v>
       </c>
-      <c r="L6">
+      <c r="L7">
         <v>9</v>
       </c>
-      <c r="M6">
+      <c r="M7">
         <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>70</v>
-      </c>
-      <c r="E7">
-        <v>35</v>
-      </c>
-      <c r="F7">
-        <v>30</v>
-      </c>
-      <c r="G7">
-        <v>28</v>
-      </c>
-      <c r="H7">
-        <v>25</v>
-      </c>
-      <c r="I7">
-        <v>20</v>
-      </c>
-      <c r="J7">
-        <v>19</v>
-      </c>
-      <c r="K7">
-        <v>18</v>
-      </c>
-      <c r="L7">
-        <v>15</v>
-      </c>
-      <c r="M7">
-        <v>13</v>
-      </c>
-      <c r="N7">
-        <v>10</v>
-      </c>
-      <c r="O7">
-        <v>7</v>
-      </c>
-      <c r="P7">
-        <v>5</v>
-      </c>
-      <c r="Q7">
-        <v>4</v>
-      </c>
-      <c r="R7">
-        <v>4</v>
-      </c>
-      <c r="S7">
-        <v>3</v>
-      </c>
-      <c r="T7">
-        <v>2</v>
-      </c>
-      <c r="U7">
-        <v>2</v>
-      </c>
-      <c r="V7">
-        <v>1.5</v>
-      </c>
-      <c r="W7">
-        <v>0.9</v>
       </c>
       <c r="X7">
         <v>0.45</v>
@@ -2327,301 +6205,4611 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:256" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>70</v>
+      </c>
+      <c r="E8">
+        <v>35</v>
+      </c>
+      <c r="F8">
+        <v>30</v>
+      </c>
+      <c r="G8">
+        <v>28</v>
+      </c>
+      <c r="H8">
+        <v>25</v>
+      </c>
+      <c r="I8">
+        <v>20</v>
+      </c>
+      <c r="J8">
+        <v>19</v>
+      </c>
+      <c r="K8">
+        <v>18</v>
+      </c>
+      <c r="L8">
+        <v>15</v>
+      </c>
+      <c r="M8">
+        <v>13</v>
+      </c>
+      <c r="N8">
+        <v>10</v>
+      </c>
+      <c r="O8">
+        <v>7</v>
+      </c>
+      <c r="P8">
+        <v>5</v>
+      </c>
+      <c r="Q8">
+        <v>4</v>
+      </c>
+      <c r="R8">
+        <v>4</v>
+      </c>
+      <c r="S8">
+        <v>3</v>
+      </c>
+      <c r="T8">
+        <v>2</v>
+      </c>
+      <c r="U8">
+        <v>2</v>
+      </c>
+      <c r="V8">
+        <v>1.5</v>
+      </c>
+      <c r="W8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:256" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
         <v>1</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>2000</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>2500</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>2600</v>
       </c>
-      <c r="G8">
+      <c r="G9">
         <v>2700</v>
       </c>
-      <c r="H8">
+      <c r="H9">
         <v>2900</v>
       </c>
-      <c r="I8">
+      <c r="I9">
         <v>3200</v>
       </c>
-      <c r="J8">
+      <c r="J9">
         <v>3400</v>
       </c>
-      <c r="K8">
+      <c r="K9">
         <v>3500</v>
       </c>
-      <c r="L8">
+      <c r="L9">
         <v>3900</v>
       </c>
-      <c r="M8">
+      <c r="M9">
         <v>4300</v>
       </c>
-      <c r="N8">
+      <c r="N9">
         <v>4800</v>
       </c>
-      <c r="O8">
+      <c r="O9">
         <v>5500</v>
       </c>
-      <c r="P8">
+      <c r="P9">
         <v>6800</v>
       </c>
-      <c r="Q8">
+      <c r="Q9">
         <v>8500</v>
       </c>
-      <c r="R8">
+      <c r="R9">
         <v>11000</v>
       </c>
-      <c r="S8">
+      <c r="S9">
         <v>16000</v>
       </c>
-      <c r="T8">
+      <c r="T9">
         <v>27000</v>
       </c>
-      <c r="U8">
+      <c r="U9">
         <v>45000</v>
       </c>
-      <c r="V8">
+      <c r="V9">
         <v>65000</v>
       </c>
-      <c r="W8">
+      <c r="W9">
         <v>95000</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D9">
-        <f>(D7-E7)/(E8-D8)</f>
+    <row r="10" spans="1:256" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <f>(D8-E8)/(E9-D9)</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E9">
-        <f t="shared" ref="E9:W9" si="3">(E7-F7)/(F8-E8)</f>
+      <c r="E10">
+        <f>(E8-F8)/(F9-E9)</f>
         <v>0.05</v>
       </c>
-      <c r="F9">
+      <c r="F10">
+        <f>(F8-G8)/(G9-F9)</f>
+        <v>0.02</v>
+      </c>
+      <c r="G10">
+        <f>(G8-H8)/(H9-G9)</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H10">
+        <f>(H8-I8)/(I9-H9)</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="I10">
+        <f>(I8-J8)/(J9-I9)</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J10">
+        <f>(J8-K8)/(K9-J9)</f>
+        <v>0.01</v>
+      </c>
+      <c r="K10">
+        <f>(K8-L8)/(L9-K9)</f>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="L10">
+        <f>(L8-M8)/(M9-L9)</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M10">
+        <f>(M8-N8)/(N9-M9)</f>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="N10">
+        <f>(N8-O8)/(O9-N9)</f>
+        <v>4.2857142857142859E-3</v>
+      </c>
+      <c r="O10">
+        <f>(O8-P8)/(P9-O9)</f>
+        <v>1.5384615384615385E-3</v>
+      </c>
+      <c r="P10">
+        <f>(P8-Q8)/(Q9-P9)</f>
+        <v>5.8823529411764701E-4</v>
+      </c>
+      <c r="Q10">
+        <f>(Q8-R8)/(R9-Q9)</f>
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <f>(R8-S8)/(S9-R9)</f>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="S10">
+        <f>(S8-T8)/(T9-S9)</f>
+        <v>9.0909090909090904E-5</v>
+      </c>
+      <c r="T10">
+        <f>(T8-U8)/(U9-T9)</f>
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <f>(U8-V8)/(V9-U9)</f>
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="V10">
+        <f>(V8-W8)/(W9-V9)</f>
+        <v>1.9999999999999998E-5</v>
+      </c>
+      <c r="W10">
+        <f>(W8-X7)/(X8-W9)</f>
+        <v>-4.7368421052631577E-6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:256" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>2300</v>
+      </c>
+      <c r="E11">
+        <v>2550</v>
+      </c>
+      <c r="F11">
+        <v>2650</v>
+      </c>
+      <c r="G11">
+        <v>2750</v>
+      </c>
+      <c r="H11">
+        <v>3000</v>
+      </c>
+      <c r="I11">
+        <v>3300</v>
+      </c>
+      <c r="J11">
+        <v>3450</v>
+      </c>
+      <c r="K11">
+        <v>3700</v>
+      </c>
+      <c r="L11">
+        <v>4100</v>
+      </c>
+      <c r="M11">
+        <v>4700</v>
+      </c>
+      <c r="N11">
+        <v>4900</v>
+      </c>
+      <c r="O11">
+        <v>6000</v>
+      </c>
+      <c r="P11">
+        <v>7000</v>
+      </c>
+      <c r="Q11">
+        <v>9000</v>
+      </c>
+      <c r="R11">
+        <v>13000</v>
+      </c>
+      <c r="S11">
+        <v>20000</v>
+      </c>
+      <c r="T11">
+        <v>28000</v>
+      </c>
+      <c r="U11">
+        <v>50000</v>
+      </c>
+      <c r="V11">
+        <v>80000</v>
+      </c>
+      <c r="W11">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:256" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <f>D10*(D11-D9)+D8</f>
+        <v>91</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ref="E12:W12" si="3">E10*(E11-E9)+E8</f>
+        <v>37.5</v>
+      </c>
+      <c r="F12">
         <f t="shared" si="3"/>
-        <v>0.02</v>
-      </c>
-      <c r="G9">
+        <v>31</v>
+      </c>
+      <c r="G12">
         <f t="shared" si="3"/>
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="H9">
+        <v>28.75</v>
+      </c>
+      <c r="H12">
         <f t="shared" si="3"/>
-        <v>1.6666666666666666E-2</v>
-      </c>
-      <c r="I9">
+        <v>26.666666666666668</v>
+      </c>
+      <c r="I12">
         <f t="shared" si="3"/>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J9">
+        <v>20.5</v>
+      </c>
+      <c r="J12">
         <f t="shared" si="3"/>
-        <v>0.01</v>
-      </c>
-      <c r="K9">
+        <v>19.5</v>
+      </c>
+      <c r="K12">
         <f t="shared" si="3"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="L9">
+        <v>19.5</v>
+      </c>
+      <c r="L12">
         <f t="shared" si="3"/>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="M9">
+        <v>16</v>
+      </c>
+      <c r="M12">
         <f t="shared" si="3"/>
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="N9">
+        <v>15.4</v>
+      </c>
+      <c r="N12">
         <f t="shared" si="3"/>
-        <v>4.2857142857142859E-3</v>
-      </c>
-      <c r="O9">
+        <v>10.428571428571429</v>
+      </c>
+      <c r="O12">
         <f t="shared" si="3"/>
-        <v>1.5384615384615385E-3</v>
-      </c>
-      <c r="P9">
+        <v>7.7692307692307692</v>
+      </c>
+      <c r="P12">
         <f t="shared" si="3"/>
-        <v>5.8823529411764701E-4</v>
-      </c>
-      <c r="Q9">
+        <v>5.117647058823529</v>
+      </c>
+      <c r="Q12">
         <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="3"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="3"/>
+        <v>3.3636363636363638</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="3"/>
+        <v>2.125</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="3"/>
+        <v>1.8</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="3"/>
+        <v>0.87631578947368427</v>
+      </c>
+    </row>
+    <row r="15" spans="1:256" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <f>5/256</f>
+        <v>1.953125E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:256" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>0</v>
       </c>
-      <c r="R9">
-        <f t="shared" si="3"/>
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="S9">
-        <f t="shared" si="3"/>
-        <v>9.0909090909090904E-5</v>
-      </c>
-      <c r="T9">
-        <f t="shared" si="3"/>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16">
+        <v>6</v>
+      </c>
+      <c r="H16">
+        <v>7</v>
+      </c>
+      <c r="I16">
+        <v>8</v>
+      </c>
+      <c r="J16">
+        <v>9</v>
+      </c>
+      <c r="K16">
+        <v>10</v>
+      </c>
+      <c r="L16">
+        <v>11</v>
+      </c>
+      <c r="M16">
+        <v>12</v>
+      </c>
+      <c r="N16">
+        <v>13</v>
+      </c>
+      <c r="O16">
+        <v>14</v>
+      </c>
+      <c r="P16">
+        <v>15</v>
+      </c>
+      <c r="Q16">
+        <v>16</v>
+      </c>
+      <c r="R16">
+        <v>17</v>
+      </c>
+      <c r="S16">
+        <v>18</v>
+      </c>
+      <c r="T16">
+        <v>19</v>
+      </c>
+      <c r="U16">
+        <v>20</v>
+      </c>
+      <c r="V16">
+        <v>21</v>
+      </c>
+      <c r="W16">
+        <v>22</v>
+      </c>
+      <c r="X16">
+        <v>23</v>
+      </c>
+      <c r="Y16">
+        <v>24</v>
+      </c>
+      <c r="Z16">
+        <v>25</v>
+      </c>
+      <c r="AA16">
+        <v>26</v>
+      </c>
+      <c r="AB16">
+        <v>27</v>
+      </c>
+      <c r="AC16">
+        <v>28</v>
+      </c>
+      <c r="AD16">
+        <v>29</v>
+      </c>
+      <c r="AE16">
+        <v>30</v>
+      </c>
+      <c r="AF16">
+        <v>31</v>
+      </c>
+      <c r="AG16">
+        <v>32</v>
+      </c>
+      <c r="AH16">
+        <v>33</v>
+      </c>
+      <c r="AI16">
+        <v>34</v>
+      </c>
+      <c r="AJ16">
+        <v>35</v>
+      </c>
+      <c r="AK16">
+        <v>36</v>
+      </c>
+      <c r="AL16">
+        <v>37</v>
+      </c>
+      <c r="AM16">
+        <v>38</v>
+      </c>
+      <c r="AN16">
+        <v>39</v>
+      </c>
+      <c r="AO16">
+        <v>40</v>
+      </c>
+      <c r="AP16">
+        <v>41</v>
+      </c>
+      <c r="AQ16">
+        <v>42</v>
+      </c>
+      <c r="AR16">
+        <v>43</v>
+      </c>
+      <c r="AS16">
+        <v>44</v>
+      </c>
+      <c r="AT16">
+        <v>45</v>
+      </c>
+      <c r="AU16">
+        <v>46</v>
+      </c>
+      <c r="AV16">
+        <v>47</v>
+      </c>
+      <c r="AW16">
+        <v>48</v>
+      </c>
+      <c r="AX16">
+        <v>49</v>
+      </c>
+      <c r="AY16">
+        <v>50</v>
+      </c>
+      <c r="AZ16">
+        <v>51</v>
+      </c>
+      <c r="BA16">
+        <v>52</v>
+      </c>
+      <c r="BB16">
+        <v>53</v>
+      </c>
+      <c r="BC16">
+        <v>54</v>
+      </c>
+      <c r="BD16">
+        <v>55</v>
+      </c>
+      <c r="BE16">
+        <v>56</v>
+      </c>
+      <c r="BF16">
+        <v>57</v>
+      </c>
+      <c r="BG16">
+        <v>58</v>
+      </c>
+      <c r="BH16">
+        <v>59</v>
+      </c>
+      <c r="BI16">
+        <v>60</v>
+      </c>
+      <c r="BJ16">
+        <v>61</v>
+      </c>
+      <c r="BK16">
+        <v>62</v>
+      </c>
+      <c r="BL16">
+        <v>63</v>
+      </c>
+      <c r="BM16">
+        <v>64</v>
+      </c>
+      <c r="BN16">
+        <v>65</v>
+      </c>
+      <c r="BO16">
+        <v>66</v>
+      </c>
+      <c r="BP16">
+        <v>67</v>
+      </c>
+      <c r="BQ16">
+        <v>68</v>
+      </c>
+      <c r="BR16">
+        <v>69</v>
+      </c>
+      <c r="BS16">
+        <v>70</v>
+      </c>
+      <c r="BT16">
+        <v>71</v>
+      </c>
+      <c r="BU16">
+        <v>72</v>
+      </c>
+      <c r="BV16">
+        <v>73</v>
+      </c>
+      <c r="BW16">
+        <v>74</v>
+      </c>
+      <c r="BX16">
+        <v>75</v>
+      </c>
+      <c r="BY16">
+        <v>76</v>
+      </c>
+      <c r="BZ16">
+        <v>77</v>
+      </c>
+      <c r="CA16">
+        <v>78</v>
+      </c>
+      <c r="CB16">
+        <v>79</v>
+      </c>
+      <c r="CC16">
+        <v>80</v>
+      </c>
+      <c r="CD16">
+        <v>81</v>
+      </c>
+      <c r="CE16">
+        <v>82</v>
+      </c>
+      <c r="CF16">
+        <v>83</v>
+      </c>
+      <c r="CG16">
+        <v>84</v>
+      </c>
+      <c r="CH16">
+        <v>85</v>
+      </c>
+      <c r="CI16">
+        <v>86</v>
+      </c>
+      <c r="CJ16">
+        <v>87</v>
+      </c>
+      <c r="CK16">
+        <v>88</v>
+      </c>
+      <c r="CL16">
+        <v>89</v>
+      </c>
+      <c r="CM16">
+        <v>90</v>
+      </c>
+      <c r="CN16">
+        <v>91</v>
+      </c>
+      <c r="CO16">
+        <v>92</v>
+      </c>
+      <c r="CP16">
+        <v>93</v>
+      </c>
+      <c r="CQ16">
+        <v>94</v>
+      </c>
+      <c r="CR16">
+        <v>95</v>
+      </c>
+      <c r="CS16">
+        <v>96</v>
+      </c>
+      <c r="CT16">
+        <v>97</v>
+      </c>
+      <c r="CU16">
+        <v>98</v>
+      </c>
+      <c r="CV16">
+        <v>99</v>
+      </c>
+      <c r="CW16">
+        <v>100</v>
+      </c>
+      <c r="CX16">
+        <v>101</v>
+      </c>
+      <c r="CY16">
+        <v>102</v>
+      </c>
+      <c r="CZ16">
+        <v>103</v>
+      </c>
+      <c r="DA16">
+        <v>104</v>
+      </c>
+      <c r="DB16">
+        <v>105</v>
+      </c>
+      <c r="DC16">
+        <v>106</v>
+      </c>
+      <c r="DD16">
+        <v>107</v>
+      </c>
+      <c r="DE16">
+        <v>108</v>
+      </c>
+      <c r="DF16">
+        <v>109</v>
+      </c>
+      <c r="DG16">
+        <v>110</v>
+      </c>
+      <c r="DH16">
+        <v>111</v>
+      </c>
+      <c r="DI16">
+        <v>112</v>
+      </c>
+      <c r="DJ16">
+        <v>113</v>
+      </c>
+      <c r="DK16">
+        <v>114</v>
+      </c>
+      <c r="DL16">
+        <v>115</v>
+      </c>
+      <c r="DM16">
+        <v>116</v>
+      </c>
+      <c r="DN16">
+        <v>117</v>
+      </c>
+      <c r="DO16">
+        <v>118</v>
+      </c>
+      <c r="DP16">
+        <v>119</v>
+      </c>
+      <c r="DQ16">
+        <v>120</v>
+      </c>
+      <c r="DR16">
+        <v>121</v>
+      </c>
+      <c r="DS16">
+        <v>122</v>
+      </c>
+      <c r="DT16">
+        <v>123</v>
+      </c>
+      <c r="DU16">
+        <v>124</v>
+      </c>
+      <c r="DV16">
+        <v>125</v>
+      </c>
+      <c r="DW16">
+        <v>126</v>
+      </c>
+      <c r="DX16">
+        <v>127</v>
+      </c>
+      <c r="DY16">
+        <v>128</v>
+      </c>
+      <c r="DZ16">
+        <v>129</v>
+      </c>
+      <c r="EA16">
+        <v>130</v>
+      </c>
+      <c r="EB16">
+        <v>131</v>
+      </c>
+      <c r="EC16">
+        <v>132</v>
+      </c>
+      <c r="ED16">
+        <v>133</v>
+      </c>
+      <c r="EE16">
+        <v>134</v>
+      </c>
+      <c r="EF16">
+        <v>135</v>
+      </c>
+      <c r="EG16">
+        <v>136</v>
+      </c>
+      <c r="EH16">
+        <v>137</v>
+      </c>
+      <c r="EI16">
+        <v>138</v>
+      </c>
+      <c r="EJ16">
+        <v>139</v>
+      </c>
+      <c r="EK16">
+        <v>140</v>
+      </c>
+      <c r="EL16">
+        <v>141</v>
+      </c>
+      <c r="EM16">
+        <v>142</v>
+      </c>
+      <c r="EN16">
+        <v>143</v>
+      </c>
+      <c r="EO16">
+        <v>144</v>
+      </c>
+      <c r="EP16">
+        <v>145</v>
+      </c>
+      <c r="EQ16">
+        <v>146</v>
+      </c>
+      <c r="ER16">
+        <v>147</v>
+      </c>
+      <c r="ES16">
+        <v>148</v>
+      </c>
+      <c r="ET16">
+        <v>149</v>
+      </c>
+      <c r="EU16">
+        <v>150</v>
+      </c>
+      <c r="EV16">
+        <v>151</v>
+      </c>
+      <c r="EW16">
+        <v>152</v>
+      </c>
+      <c r="EX16">
+        <v>153</v>
+      </c>
+      <c r="EY16">
+        <v>154</v>
+      </c>
+      <c r="EZ16">
+        <v>155</v>
+      </c>
+      <c r="FA16">
+        <v>156</v>
+      </c>
+      <c r="FB16">
+        <v>157</v>
+      </c>
+      <c r="FC16">
+        <v>158</v>
+      </c>
+      <c r="FD16">
+        <v>159</v>
+      </c>
+      <c r="FE16">
+        <v>160</v>
+      </c>
+      <c r="FF16">
+        <v>161</v>
+      </c>
+      <c r="FG16">
+        <v>162</v>
+      </c>
+      <c r="FH16">
+        <v>163</v>
+      </c>
+      <c r="FI16">
+        <v>164</v>
+      </c>
+      <c r="FJ16">
+        <v>165</v>
+      </c>
+      <c r="FK16">
+        <v>166</v>
+      </c>
+      <c r="FL16">
+        <v>167</v>
+      </c>
+      <c r="FM16">
+        <v>168</v>
+      </c>
+      <c r="FN16">
+        <v>169</v>
+      </c>
+      <c r="FO16">
+        <v>170</v>
+      </c>
+      <c r="FP16">
+        <v>171</v>
+      </c>
+      <c r="FQ16">
+        <v>172</v>
+      </c>
+      <c r="FR16">
+        <v>173</v>
+      </c>
+      <c r="FS16">
+        <v>174</v>
+      </c>
+      <c r="FT16">
+        <v>175</v>
+      </c>
+      <c r="FU16">
+        <v>176</v>
+      </c>
+      <c r="FV16">
+        <v>177</v>
+      </c>
+      <c r="FW16">
+        <v>178</v>
+      </c>
+      <c r="FX16">
+        <v>179</v>
+      </c>
+      <c r="FY16">
+        <v>180</v>
+      </c>
+      <c r="FZ16">
+        <v>181</v>
+      </c>
+      <c r="GA16">
+        <v>182</v>
+      </c>
+      <c r="GB16">
+        <v>183</v>
+      </c>
+      <c r="GC16">
+        <v>184</v>
+      </c>
+      <c r="GD16">
+        <v>185</v>
+      </c>
+      <c r="GE16">
+        <v>186</v>
+      </c>
+      <c r="GF16">
+        <v>187</v>
+      </c>
+      <c r="GG16">
+        <v>188</v>
+      </c>
+      <c r="GH16">
+        <v>189</v>
+      </c>
+      <c r="GI16">
+        <v>190</v>
+      </c>
+      <c r="GJ16">
+        <v>191</v>
+      </c>
+      <c r="GK16">
+        <v>192</v>
+      </c>
+      <c r="GL16">
+        <v>193</v>
+      </c>
+      <c r="GM16">
+        <v>194</v>
+      </c>
+      <c r="GN16">
+        <v>195</v>
+      </c>
+      <c r="GO16">
+        <v>196</v>
+      </c>
+      <c r="GP16">
+        <v>197</v>
+      </c>
+      <c r="GQ16">
+        <v>198</v>
+      </c>
+      <c r="GR16">
+        <v>199</v>
+      </c>
+      <c r="GS16">
+        <v>200</v>
+      </c>
+      <c r="GT16">
+        <v>201</v>
+      </c>
+      <c r="GU16">
+        <v>202</v>
+      </c>
+      <c r="GV16">
+        <v>203</v>
+      </c>
+      <c r="GW16">
+        <v>204</v>
+      </c>
+      <c r="GX16">
+        <v>205</v>
+      </c>
+      <c r="GY16">
+        <v>206</v>
+      </c>
+      <c r="GZ16">
+        <v>207</v>
+      </c>
+      <c r="HA16">
+        <v>208</v>
+      </c>
+      <c r="HB16">
+        <v>209</v>
+      </c>
+      <c r="HC16">
+        <v>210</v>
+      </c>
+      <c r="HD16">
+        <v>211</v>
+      </c>
+      <c r="HE16">
+        <v>212</v>
+      </c>
+      <c r="HF16">
+        <v>213</v>
+      </c>
+      <c r="HG16">
+        <v>214</v>
+      </c>
+      <c r="HH16">
+        <v>215</v>
+      </c>
+      <c r="HI16">
+        <v>216</v>
+      </c>
+      <c r="HJ16">
+        <v>217</v>
+      </c>
+      <c r="HK16">
+        <v>218</v>
+      </c>
+      <c r="HL16">
+        <v>219</v>
+      </c>
+      <c r="HM16">
+        <v>220</v>
+      </c>
+      <c r="HN16">
+        <v>221</v>
+      </c>
+      <c r="HO16">
+        <v>222</v>
+      </c>
+      <c r="HP16">
+        <v>223</v>
+      </c>
+      <c r="HQ16">
+        <v>224</v>
+      </c>
+      <c r="HR16">
+        <v>225</v>
+      </c>
+      <c r="HS16">
+        <v>226</v>
+      </c>
+      <c r="HT16">
+        <v>227</v>
+      </c>
+      <c r="HU16">
+        <v>228</v>
+      </c>
+      <c r="HV16">
+        <v>229</v>
+      </c>
+      <c r="HW16">
+        <v>230</v>
+      </c>
+      <c r="HX16">
+        <v>231</v>
+      </c>
+      <c r="HY16">
+        <v>232</v>
+      </c>
+      <c r="HZ16">
+        <v>233</v>
+      </c>
+      <c r="IA16">
+        <v>234</v>
+      </c>
+      <c r="IB16">
+        <v>235</v>
+      </c>
+      <c r="IC16">
+        <v>236</v>
+      </c>
+      <c r="ID16">
+        <v>237</v>
+      </c>
+      <c r="IE16">
+        <v>238</v>
+      </c>
+      <c r="IF16">
+        <v>239</v>
+      </c>
+      <c r="IG16">
+        <v>240</v>
+      </c>
+      <c r="IH16">
+        <v>241</v>
+      </c>
+      <c r="II16">
+        <v>242</v>
+      </c>
+      <c r="IJ16">
+        <v>243</v>
+      </c>
+      <c r="IK16">
+        <v>244</v>
+      </c>
+      <c r="IL16">
+        <v>245</v>
+      </c>
+      <c r="IM16">
+        <v>246</v>
+      </c>
+      <c r="IN16">
+        <v>247</v>
+      </c>
+      <c r="IO16">
+        <v>248</v>
+      </c>
+      <c r="IP16">
+        <v>249</v>
+      </c>
+      <c r="IQ16">
+        <v>250</v>
+      </c>
+      <c r="IR16">
+        <v>251</v>
+      </c>
+      <c r="IS16">
+        <v>252</v>
+      </c>
+      <c r="IT16">
+        <v>253</v>
+      </c>
+      <c r="IU16">
+        <v>254</v>
+      </c>
+      <c r="IV16">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="17" spans="1:256" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f>A16*$B15</f>
         <v>0</v>
       </c>
-      <c r="U9">
-        <f t="shared" si="3"/>
-        <v>2.5000000000000001E-5</v>
-      </c>
-      <c r="V9">
-        <f t="shared" si="3"/>
-        <v>1.9999999999999998E-5</v>
-      </c>
-      <c r="W9">
-        <f t="shared" si="3"/>
-        <v>-4.7368421052631577E-6</v>
+      <c r="B17">
+        <f t="shared" ref="B17:BM17" si="4">B16*$B15</f>
+        <v>1.953125E-2</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="4"/>
+        <v>3.90625E-2</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="4"/>
+        <v>5.859375E-2</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="4"/>
+        <v>7.8125E-2</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="4"/>
+        <v>9.765625E-2</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="4"/>
+        <v>0.1171875</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="4"/>
+        <v>0.13671875</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="4"/>
+        <v>0.15625</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="4"/>
+        <v>0.17578125</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="4"/>
+        <v>0.1953125</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="4"/>
+        <v>0.21484375</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="4"/>
+        <v>0.234375</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="4"/>
+        <v>0.25390625</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="4"/>
+        <v>0.2734375</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="4"/>
+        <v>0.29296875</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="4"/>
+        <v>0.3125</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="4"/>
+        <v>0.33203125</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="4"/>
+        <v>0.3515625</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="4"/>
+        <v>0.37109375</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="4"/>
+        <v>0.390625</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="4"/>
+        <v>0.41015625</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="4"/>
+        <v>0.4296875</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="4"/>
+        <v>0.44921875</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="4"/>
+        <v>0.46875</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="4"/>
+        <v>0.48828125</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="4"/>
+        <v>0.5078125</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" si="4"/>
+        <v>0.52734375</v>
+      </c>
+      <c r="AC17">
+        <f t="shared" si="4"/>
+        <v>0.546875</v>
+      </c>
+      <c r="AD17">
+        <f t="shared" si="4"/>
+        <v>0.56640625</v>
+      </c>
+      <c r="AE17">
+        <f t="shared" si="4"/>
+        <v>0.5859375</v>
+      </c>
+      <c r="AF17">
+        <f t="shared" si="4"/>
+        <v>0.60546875</v>
+      </c>
+      <c r="AG17">
+        <f t="shared" si="4"/>
+        <v>0.625</v>
+      </c>
+      <c r="AH17">
+        <f t="shared" si="4"/>
+        <v>0.64453125</v>
+      </c>
+      <c r="AI17">
+        <f t="shared" si="4"/>
+        <v>0.6640625</v>
+      </c>
+      <c r="AJ17">
+        <f t="shared" si="4"/>
+        <v>0.68359375</v>
+      </c>
+      <c r="AK17">
+        <f t="shared" si="4"/>
+        <v>0.703125</v>
+      </c>
+      <c r="AL17">
+        <f t="shared" si="4"/>
+        <v>0.72265625</v>
+      </c>
+      <c r="AM17">
+        <f t="shared" si="4"/>
+        <v>0.7421875</v>
+      </c>
+      <c r="AN17">
+        <f t="shared" si="4"/>
+        <v>0.76171875</v>
+      </c>
+      <c r="AO17">
+        <f t="shared" si="4"/>
+        <v>0.78125</v>
+      </c>
+      <c r="AP17">
+        <f t="shared" si="4"/>
+        <v>0.80078125</v>
+      </c>
+      <c r="AQ17">
+        <f t="shared" si="4"/>
+        <v>0.8203125</v>
+      </c>
+      <c r="AR17">
+        <f t="shared" si="4"/>
+        <v>0.83984375</v>
+      </c>
+      <c r="AS17">
+        <f t="shared" si="4"/>
+        <v>0.859375</v>
+      </c>
+      <c r="AT17">
+        <f t="shared" si="4"/>
+        <v>0.87890625</v>
+      </c>
+      <c r="AU17">
+        <f t="shared" si="4"/>
+        <v>0.8984375</v>
+      </c>
+      <c r="AV17">
+        <f t="shared" si="4"/>
+        <v>0.91796875</v>
+      </c>
+      <c r="AW17">
+        <f t="shared" si="4"/>
+        <v>0.9375</v>
+      </c>
+      <c r="AX17">
+        <f t="shared" si="4"/>
+        <v>0.95703125</v>
+      </c>
+      <c r="AY17">
+        <f t="shared" si="4"/>
+        <v>0.9765625</v>
+      </c>
+      <c r="AZ17">
+        <f t="shared" si="4"/>
+        <v>0.99609375</v>
+      </c>
+      <c r="BA17">
+        <f t="shared" si="4"/>
+        <v>1.015625</v>
+      </c>
+      <c r="BB17">
+        <f t="shared" si="4"/>
+        <v>1.03515625</v>
+      </c>
+      <c r="BC17">
+        <f t="shared" si="4"/>
+        <v>1.0546875</v>
+      </c>
+      <c r="BD17">
+        <f t="shared" si="4"/>
+        <v>1.07421875</v>
+      </c>
+      <c r="BE17">
+        <f t="shared" si="4"/>
+        <v>1.09375</v>
+      </c>
+      <c r="BF17">
+        <f t="shared" si="4"/>
+        <v>1.11328125</v>
+      </c>
+      <c r="BG17">
+        <f t="shared" si="4"/>
+        <v>1.1328125</v>
+      </c>
+      <c r="BH17">
+        <f t="shared" si="4"/>
+        <v>1.15234375</v>
+      </c>
+      <c r="BI17">
+        <f t="shared" si="4"/>
+        <v>1.171875</v>
+      </c>
+      <c r="BJ17">
+        <f t="shared" si="4"/>
+        <v>1.19140625</v>
+      </c>
+      <c r="BK17">
+        <f t="shared" si="4"/>
+        <v>1.2109375</v>
+      </c>
+      <c r="BL17">
+        <f t="shared" si="4"/>
+        <v>1.23046875</v>
+      </c>
+      <c r="BM17">
+        <f t="shared" si="4"/>
+        <v>1.25</v>
+      </c>
+      <c r="BN17">
+        <f t="shared" ref="BN17:DY17" si="5">BN16*$B15</f>
+        <v>1.26953125</v>
+      </c>
+      <c r="BO17">
+        <f t="shared" si="5"/>
+        <v>1.2890625</v>
+      </c>
+      <c r="BP17">
+        <f t="shared" si="5"/>
+        <v>1.30859375</v>
+      </c>
+      <c r="BQ17">
+        <f t="shared" si="5"/>
+        <v>1.328125</v>
+      </c>
+      <c r="BR17">
+        <f t="shared" si="5"/>
+        <v>1.34765625</v>
+      </c>
+      <c r="BS17">
+        <f t="shared" si="5"/>
+        <v>1.3671875</v>
+      </c>
+      <c r="BT17">
+        <f t="shared" si="5"/>
+        <v>1.38671875</v>
+      </c>
+      <c r="BU17">
+        <f t="shared" si="5"/>
+        <v>1.40625</v>
+      </c>
+      <c r="BV17">
+        <f t="shared" si="5"/>
+        <v>1.42578125</v>
+      </c>
+      <c r="BW17">
+        <f t="shared" si="5"/>
+        <v>1.4453125</v>
+      </c>
+      <c r="BX17">
+        <f t="shared" si="5"/>
+        <v>1.46484375</v>
+      </c>
+      <c r="BY17">
+        <f t="shared" si="5"/>
+        <v>1.484375</v>
+      </c>
+      <c r="BZ17">
+        <f t="shared" si="5"/>
+        <v>1.50390625</v>
+      </c>
+      <c r="CA17">
+        <f t="shared" si="5"/>
+        <v>1.5234375</v>
+      </c>
+      <c r="CB17">
+        <f t="shared" si="5"/>
+        <v>1.54296875</v>
+      </c>
+      <c r="CC17">
+        <f t="shared" si="5"/>
+        <v>1.5625</v>
+      </c>
+      <c r="CD17">
+        <f t="shared" si="5"/>
+        <v>1.58203125</v>
+      </c>
+      <c r="CE17">
+        <f t="shared" si="5"/>
+        <v>1.6015625</v>
+      </c>
+      <c r="CF17">
+        <f t="shared" si="5"/>
+        <v>1.62109375</v>
+      </c>
+      <c r="CG17">
+        <f t="shared" si="5"/>
+        <v>1.640625</v>
+      </c>
+      <c r="CH17">
+        <f t="shared" si="5"/>
+        <v>1.66015625</v>
+      </c>
+      <c r="CI17">
+        <f t="shared" si="5"/>
+        <v>1.6796875</v>
+      </c>
+      <c r="CJ17">
+        <f t="shared" si="5"/>
+        <v>1.69921875</v>
+      </c>
+      <c r="CK17">
+        <f t="shared" si="5"/>
+        <v>1.71875</v>
+      </c>
+      <c r="CL17">
+        <f t="shared" si="5"/>
+        <v>1.73828125</v>
+      </c>
+      <c r="CM17">
+        <f t="shared" si="5"/>
+        <v>1.7578125</v>
+      </c>
+      <c r="CN17">
+        <f t="shared" si="5"/>
+        <v>1.77734375</v>
+      </c>
+      <c r="CO17">
+        <f t="shared" si="5"/>
+        <v>1.796875</v>
+      </c>
+      <c r="CP17">
+        <f t="shared" si="5"/>
+        <v>1.81640625</v>
+      </c>
+      <c r="CQ17">
+        <f t="shared" si="5"/>
+        <v>1.8359375</v>
+      </c>
+      <c r="CR17">
+        <f t="shared" si="5"/>
+        <v>1.85546875</v>
+      </c>
+      <c r="CS17">
+        <f t="shared" si="5"/>
+        <v>1.875</v>
+      </c>
+      <c r="CT17">
+        <f t="shared" si="5"/>
+        <v>1.89453125</v>
+      </c>
+      <c r="CU17">
+        <f t="shared" si="5"/>
+        <v>1.9140625</v>
+      </c>
+      <c r="CV17">
+        <f t="shared" si="5"/>
+        <v>1.93359375</v>
+      </c>
+      <c r="CW17">
+        <f t="shared" si="5"/>
+        <v>1.953125</v>
+      </c>
+      <c r="CX17">
+        <f t="shared" si="5"/>
+        <v>1.97265625</v>
+      </c>
+      <c r="CY17">
+        <f t="shared" si="5"/>
+        <v>1.9921875</v>
+      </c>
+      <c r="CZ17">
+        <f t="shared" si="5"/>
+        <v>2.01171875</v>
+      </c>
+      <c r="DA17">
+        <f t="shared" si="5"/>
+        <v>2.03125</v>
+      </c>
+      <c r="DB17">
+        <f t="shared" si="5"/>
+        <v>2.05078125</v>
+      </c>
+      <c r="DC17">
+        <f t="shared" si="5"/>
+        <v>2.0703125</v>
+      </c>
+      <c r="DD17">
+        <f t="shared" si="5"/>
+        <v>2.08984375</v>
+      </c>
+      <c r="DE17">
+        <f t="shared" si="5"/>
+        <v>2.109375</v>
+      </c>
+      <c r="DF17">
+        <f t="shared" si="5"/>
+        <v>2.12890625</v>
+      </c>
+      <c r="DG17">
+        <f t="shared" si="5"/>
+        <v>2.1484375</v>
+      </c>
+      <c r="DH17">
+        <f t="shared" si="5"/>
+        <v>2.16796875</v>
+      </c>
+      <c r="DI17">
+        <f t="shared" si="5"/>
+        <v>2.1875</v>
+      </c>
+      <c r="DJ17">
+        <f t="shared" si="5"/>
+        <v>2.20703125</v>
+      </c>
+      <c r="DK17">
+        <f t="shared" si="5"/>
+        <v>2.2265625</v>
+      </c>
+      <c r="DL17">
+        <f t="shared" si="5"/>
+        <v>2.24609375</v>
+      </c>
+      <c r="DM17">
+        <f t="shared" si="5"/>
+        <v>2.265625</v>
+      </c>
+      <c r="DN17">
+        <f t="shared" si="5"/>
+        <v>2.28515625</v>
+      </c>
+      <c r="DO17">
+        <f t="shared" si="5"/>
+        <v>2.3046875</v>
+      </c>
+      <c r="DP17">
+        <f t="shared" si="5"/>
+        <v>2.32421875</v>
+      </c>
+      <c r="DQ17">
+        <f t="shared" si="5"/>
+        <v>2.34375</v>
+      </c>
+      <c r="DR17">
+        <f t="shared" si="5"/>
+        <v>2.36328125</v>
+      </c>
+      <c r="DS17">
+        <f t="shared" si="5"/>
+        <v>2.3828125</v>
+      </c>
+      <c r="DT17">
+        <f t="shared" si="5"/>
+        <v>2.40234375</v>
+      </c>
+      <c r="DU17">
+        <f t="shared" si="5"/>
+        <v>2.421875</v>
+      </c>
+      <c r="DV17">
+        <f t="shared" si="5"/>
+        <v>2.44140625</v>
+      </c>
+      <c r="DW17">
+        <f t="shared" si="5"/>
+        <v>2.4609375</v>
+      </c>
+      <c r="DX17">
+        <f t="shared" si="5"/>
+        <v>2.48046875</v>
+      </c>
+      <c r="DY17">
+        <f t="shared" si="5"/>
+        <v>2.5</v>
+      </c>
+      <c r="DZ17">
+        <f t="shared" ref="DZ17:GK17" si="6">DZ16*$B15</f>
+        <v>2.51953125</v>
+      </c>
+      <c r="EA17">
+        <f t="shared" si="6"/>
+        <v>2.5390625</v>
+      </c>
+      <c r="EB17">
+        <f t="shared" si="6"/>
+        <v>2.55859375</v>
+      </c>
+      <c r="EC17">
+        <f t="shared" si="6"/>
+        <v>2.578125</v>
+      </c>
+      <c r="ED17">
+        <f t="shared" si="6"/>
+        <v>2.59765625</v>
+      </c>
+      <c r="EE17">
+        <f t="shared" si="6"/>
+        <v>2.6171875</v>
+      </c>
+      <c r="EF17">
+        <f t="shared" si="6"/>
+        <v>2.63671875</v>
+      </c>
+      <c r="EG17">
+        <f t="shared" si="6"/>
+        <v>2.65625</v>
+      </c>
+      <c r="EH17">
+        <f t="shared" si="6"/>
+        <v>2.67578125</v>
+      </c>
+      <c r="EI17">
+        <f t="shared" si="6"/>
+        <v>2.6953125</v>
+      </c>
+      <c r="EJ17">
+        <f t="shared" si="6"/>
+        <v>2.71484375</v>
+      </c>
+      <c r="EK17">
+        <f t="shared" si="6"/>
+        <v>2.734375</v>
+      </c>
+      <c r="EL17">
+        <f t="shared" si="6"/>
+        <v>2.75390625</v>
+      </c>
+      <c r="EM17">
+        <f t="shared" si="6"/>
+        <v>2.7734375</v>
+      </c>
+      <c r="EN17">
+        <f t="shared" si="6"/>
+        <v>2.79296875</v>
+      </c>
+      <c r="EO17">
+        <f t="shared" si="6"/>
+        <v>2.8125</v>
+      </c>
+      <c r="EP17">
+        <f t="shared" si="6"/>
+        <v>2.83203125</v>
+      </c>
+      <c r="EQ17">
+        <f t="shared" si="6"/>
+        <v>2.8515625</v>
+      </c>
+      <c r="ER17">
+        <f t="shared" si="6"/>
+        <v>2.87109375</v>
+      </c>
+      <c r="ES17">
+        <f t="shared" si="6"/>
+        <v>2.890625</v>
+      </c>
+      <c r="ET17">
+        <f t="shared" si="6"/>
+        <v>2.91015625</v>
+      </c>
+      <c r="EU17">
+        <f t="shared" si="6"/>
+        <v>2.9296875</v>
+      </c>
+      <c r="EV17">
+        <f t="shared" si="6"/>
+        <v>2.94921875</v>
+      </c>
+      <c r="EW17">
+        <f t="shared" si="6"/>
+        <v>2.96875</v>
+      </c>
+      <c r="EX17">
+        <f t="shared" si="6"/>
+        <v>2.98828125</v>
+      </c>
+      <c r="EY17">
+        <f t="shared" si="6"/>
+        <v>3.0078125</v>
+      </c>
+      <c r="EZ17">
+        <f t="shared" si="6"/>
+        <v>3.02734375</v>
+      </c>
+      <c r="FA17">
+        <f t="shared" si="6"/>
+        <v>3.046875</v>
+      </c>
+      <c r="FB17">
+        <f t="shared" si="6"/>
+        <v>3.06640625</v>
+      </c>
+      <c r="FC17">
+        <f t="shared" si="6"/>
+        <v>3.0859375</v>
+      </c>
+      <c r="FD17">
+        <f t="shared" si="6"/>
+        <v>3.10546875</v>
+      </c>
+      <c r="FE17">
+        <f t="shared" si="6"/>
+        <v>3.125</v>
+      </c>
+      <c r="FF17">
+        <f t="shared" si="6"/>
+        <v>3.14453125</v>
+      </c>
+      <c r="FG17">
+        <f t="shared" si="6"/>
+        <v>3.1640625</v>
+      </c>
+      <c r="FH17">
+        <f t="shared" si="6"/>
+        <v>3.18359375</v>
+      </c>
+      <c r="FI17">
+        <f t="shared" si="6"/>
+        <v>3.203125</v>
+      </c>
+      <c r="FJ17">
+        <f t="shared" si="6"/>
+        <v>3.22265625</v>
+      </c>
+      <c r="FK17">
+        <f t="shared" si="6"/>
+        <v>3.2421875</v>
+      </c>
+      <c r="FL17">
+        <f t="shared" si="6"/>
+        <v>3.26171875</v>
+      </c>
+      <c r="FM17">
+        <f t="shared" si="6"/>
+        <v>3.28125</v>
+      </c>
+      <c r="FN17">
+        <f t="shared" si="6"/>
+        <v>3.30078125</v>
+      </c>
+      <c r="FO17">
+        <f t="shared" si="6"/>
+        <v>3.3203125</v>
+      </c>
+      <c r="FP17">
+        <f t="shared" si="6"/>
+        <v>3.33984375</v>
+      </c>
+      <c r="FQ17">
+        <f t="shared" si="6"/>
+        <v>3.359375</v>
+      </c>
+      <c r="FR17">
+        <f t="shared" si="6"/>
+        <v>3.37890625</v>
+      </c>
+      <c r="FS17">
+        <f t="shared" si="6"/>
+        <v>3.3984375</v>
+      </c>
+      <c r="FT17">
+        <f t="shared" si="6"/>
+        <v>3.41796875</v>
+      </c>
+      <c r="FU17">
+        <f t="shared" si="6"/>
+        <v>3.4375</v>
+      </c>
+      <c r="FV17">
+        <f t="shared" si="6"/>
+        <v>3.45703125</v>
+      </c>
+      <c r="FW17">
+        <f t="shared" si="6"/>
+        <v>3.4765625</v>
+      </c>
+      <c r="FX17">
+        <f t="shared" si="6"/>
+        <v>3.49609375</v>
+      </c>
+      <c r="FY17">
+        <f t="shared" si="6"/>
+        <v>3.515625</v>
+      </c>
+      <c r="FZ17">
+        <f t="shared" si="6"/>
+        <v>3.53515625</v>
+      </c>
+      <c r="GA17">
+        <f t="shared" si="6"/>
+        <v>3.5546875</v>
+      </c>
+      <c r="GB17">
+        <f t="shared" si="6"/>
+        <v>3.57421875</v>
+      </c>
+      <c r="GC17">
+        <f t="shared" si="6"/>
+        <v>3.59375</v>
+      </c>
+      <c r="GD17">
+        <f t="shared" si="6"/>
+        <v>3.61328125</v>
+      </c>
+      <c r="GE17">
+        <f t="shared" si="6"/>
+        <v>3.6328125</v>
+      </c>
+      <c r="GF17">
+        <f t="shared" si="6"/>
+        <v>3.65234375</v>
+      </c>
+      <c r="GG17">
+        <f t="shared" si="6"/>
+        <v>3.671875</v>
+      </c>
+      <c r="GH17">
+        <f t="shared" si="6"/>
+        <v>3.69140625</v>
+      </c>
+      <c r="GI17">
+        <f t="shared" si="6"/>
+        <v>3.7109375</v>
+      </c>
+      <c r="GJ17">
+        <f t="shared" si="6"/>
+        <v>3.73046875</v>
+      </c>
+      <c r="GK17">
+        <f t="shared" si="6"/>
+        <v>3.75</v>
+      </c>
+      <c r="GL17">
+        <f t="shared" ref="GL17:IV17" si="7">GL16*$B15</f>
+        <v>3.76953125</v>
+      </c>
+      <c r="GM17">
+        <f t="shared" si="7"/>
+        <v>3.7890625</v>
+      </c>
+      <c r="GN17">
+        <f t="shared" si="7"/>
+        <v>3.80859375</v>
+      </c>
+      <c r="GO17">
+        <f t="shared" si="7"/>
+        <v>3.828125</v>
+      </c>
+      <c r="GP17">
+        <f t="shared" si="7"/>
+        <v>3.84765625</v>
+      </c>
+      <c r="GQ17">
+        <f t="shared" si="7"/>
+        <v>3.8671875</v>
+      </c>
+      <c r="GR17">
+        <f t="shared" si="7"/>
+        <v>3.88671875</v>
+      </c>
+      <c r="GS17">
+        <f t="shared" si="7"/>
+        <v>3.90625</v>
+      </c>
+      <c r="GT17">
+        <f t="shared" si="7"/>
+        <v>3.92578125</v>
+      </c>
+      <c r="GU17">
+        <f t="shared" si="7"/>
+        <v>3.9453125</v>
+      </c>
+      <c r="GV17">
+        <f t="shared" si="7"/>
+        <v>3.96484375</v>
+      </c>
+      <c r="GW17">
+        <f t="shared" si="7"/>
+        <v>3.984375</v>
+      </c>
+      <c r="GX17">
+        <f t="shared" si="7"/>
+        <v>4.00390625</v>
+      </c>
+      <c r="GY17">
+        <f t="shared" si="7"/>
+        <v>4.0234375</v>
+      </c>
+      <c r="GZ17">
+        <f t="shared" si="7"/>
+        <v>4.04296875</v>
+      </c>
+      <c r="HA17">
+        <f t="shared" si="7"/>
+        <v>4.0625</v>
+      </c>
+      <c r="HB17">
+        <f t="shared" si="7"/>
+        <v>4.08203125</v>
+      </c>
+      <c r="HC17">
+        <f t="shared" si="7"/>
+        <v>4.1015625</v>
+      </c>
+      <c r="HD17">
+        <f t="shared" si="7"/>
+        <v>4.12109375</v>
+      </c>
+      <c r="HE17">
+        <f t="shared" si="7"/>
+        <v>4.140625</v>
+      </c>
+      <c r="HF17">
+        <f t="shared" si="7"/>
+        <v>4.16015625</v>
+      </c>
+      <c r="HG17">
+        <f t="shared" si="7"/>
+        <v>4.1796875</v>
+      </c>
+      <c r="HH17">
+        <f t="shared" si="7"/>
+        <v>4.19921875</v>
+      </c>
+      <c r="HI17">
+        <f t="shared" si="7"/>
+        <v>4.21875</v>
+      </c>
+      <c r="HJ17">
+        <f t="shared" si="7"/>
+        <v>4.23828125</v>
+      </c>
+      <c r="HK17">
+        <f t="shared" si="7"/>
+        <v>4.2578125</v>
+      </c>
+      <c r="HL17">
+        <f t="shared" si="7"/>
+        <v>4.27734375</v>
+      </c>
+      <c r="HM17">
+        <f t="shared" si="7"/>
+        <v>4.296875</v>
+      </c>
+      <c r="HN17">
+        <f t="shared" si="7"/>
+        <v>4.31640625</v>
+      </c>
+      <c r="HO17">
+        <f t="shared" si="7"/>
+        <v>4.3359375</v>
+      </c>
+      <c r="HP17">
+        <f t="shared" si="7"/>
+        <v>4.35546875</v>
+      </c>
+      <c r="HQ17">
+        <f t="shared" si="7"/>
+        <v>4.375</v>
+      </c>
+      <c r="HR17">
+        <f t="shared" si="7"/>
+        <v>4.39453125</v>
+      </c>
+      <c r="HS17">
+        <f t="shared" si="7"/>
+        <v>4.4140625</v>
+      </c>
+      <c r="HT17">
+        <f t="shared" si="7"/>
+        <v>4.43359375</v>
+      </c>
+      <c r="HU17">
+        <f t="shared" si="7"/>
+        <v>4.453125</v>
+      </c>
+      <c r="HV17">
+        <f t="shared" si="7"/>
+        <v>4.47265625</v>
+      </c>
+      <c r="HW17">
+        <f t="shared" si="7"/>
+        <v>4.4921875</v>
+      </c>
+      <c r="HX17">
+        <f t="shared" si="7"/>
+        <v>4.51171875</v>
+      </c>
+      <c r="HY17">
+        <f t="shared" si="7"/>
+        <v>4.53125</v>
+      </c>
+      <c r="HZ17">
+        <f t="shared" si="7"/>
+        <v>4.55078125</v>
+      </c>
+      <c r="IA17">
+        <f t="shared" si="7"/>
+        <v>4.5703125</v>
+      </c>
+      <c r="IB17">
+        <f t="shared" si="7"/>
+        <v>4.58984375</v>
+      </c>
+      <c r="IC17">
+        <f t="shared" si="7"/>
+        <v>4.609375</v>
+      </c>
+      <c r="ID17">
+        <f t="shared" si="7"/>
+        <v>4.62890625</v>
+      </c>
+      <c r="IE17">
+        <f t="shared" si="7"/>
+        <v>4.6484375</v>
+      </c>
+      <c r="IF17">
+        <f t="shared" si="7"/>
+        <v>4.66796875</v>
+      </c>
+      <c r="IG17">
+        <f t="shared" si="7"/>
+        <v>4.6875</v>
+      </c>
+      <c r="IH17">
+        <f t="shared" si="7"/>
+        <v>4.70703125</v>
+      </c>
+      <c r="II17">
+        <f t="shared" si="7"/>
+        <v>4.7265625</v>
+      </c>
+      <c r="IJ17">
+        <f t="shared" si="7"/>
+        <v>4.74609375</v>
+      </c>
+      <c r="IK17">
+        <f t="shared" si="7"/>
+        <v>4.765625</v>
+      </c>
+      <c r="IL17">
+        <f t="shared" si="7"/>
+        <v>4.78515625</v>
+      </c>
+      <c r="IM17">
+        <f t="shared" si="7"/>
+        <v>4.8046875</v>
+      </c>
+      <c r="IN17">
+        <f t="shared" si="7"/>
+        <v>4.82421875</v>
+      </c>
+      <c r="IO17">
+        <f t="shared" si="7"/>
+        <v>4.84375</v>
+      </c>
+      <c r="IP17">
+        <f t="shared" si="7"/>
+        <v>4.86328125</v>
+      </c>
+      <c r="IQ17">
+        <f t="shared" si="7"/>
+        <v>4.8828125</v>
+      </c>
+      <c r="IR17">
+        <f t="shared" si="7"/>
+        <v>4.90234375</v>
+      </c>
+      <c r="IS17">
+        <f t="shared" si="7"/>
+        <v>4.921875</v>
+      </c>
+      <c r="IT17">
+        <f t="shared" si="7"/>
+        <v>4.94140625</v>
+      </c>
+      <c r="IU17">
+        <f t="shared" si="7"/>
+        <v>4.9609375</v>
+      </c>
+      <c r="IV17">
+        <f t="shared" si="7"/>
+        <v>4.98046875</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10">
-        <v>2300</v>
-      </c>
-      <c r="E10">
-        <v>2550</v>
-      </c>
-      <c r="F10">
-        <v>2650</v>
-      </c>
-      <c r="G10">
-        <v>2750</v>
-      </c>
-      <c r="H10">
-        <v>3000</v>
-      </c>
-      <c r="I10">
-        <v>3300</v>
-      </c>
-      <c r="J10">
-        <v>3450</v>
-      </c>
-      <c r="K10">
-        <v>3700</v>
-      </c>
-      <c r="L10">
-        <v>4100</v>
-      </c>
-      <c r="M10">
-        <v>4700</v>
-      </c>
-      <c r="N10">
-        <v>4900</v>
-      </c>
-      <c r="O10">
-        <v>6000</v>
-      </c>
-      <c r="P10">
-        <v>7000</v>
-      </c>
-      <c r="Q10">
-        <v>9000</v>
-      </c>
-      <c r="R10">
-        <v>13000</v>
-      </c>
-      <c r="S10">
-        <v>20000</v>
-      </c>
-      <c r="T10">
-        <v>28000</v>
-      </c>
-      <c r="U10">
-        <v>50000</v>
-      </c>
-      <c r="V10">
-        <v>80000</v>
-      </c>
-      <c r="W10">
-        <v>100000</v>
+    <row r="18" spans="1:256" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>8366</v>
+      </c>
+      <c r="C18">
+        <v>16732</v>
+      </c>
+      <c r="D18">
+        <v>25098</v>
+      </c>
+      <c r="E18">
+        <v>33464</v>
+      </c>
+      <c r="F18">
+        <v>41830</v>
+      </c>
+      <c r="G18">
+        <v>50196</v>
+      </c>
+      <c r="H18">
+        <v>58562</v>
+      </c>
+      <c r="I18">
+        <v>66928</v>
+      </c>
+      <c r="J18">
+        <v>75294</v>
+      </c>
+      <c r="K18">
+        <v>83660</v>
+      </c>
+      <c r="L18">
+        <v>92026</v>
+      </c>
+      <c r="M18">
+        <v>100392</v>
+      </c>
+      <c r="N18">
+        <v>108758</v>
+      </c>
+      <c r="O18">
+        <v>117124</v>
+      </c>
+      <c r="P18">
+        <v>125490</v>
+      </c>
+      <c r="Q18">
+        <v>133856</v>
+      </c>
+      <c r="R18">
+        <v>142222</v>
+      </c>
+      <c r="S18">
+        <v>150588</v>
+      </c>
+      <c r="T18">
+        <v>158954</v>
+      </c>
+      <c r="U18">
+        <v>167320</v>
+      </c>
+      <c r="V18">
+        <v>175686</v>
+      </c>
+      <c r="W18">
+        <v>184052</v>
+      </c>
+      <c r="X18">
+        <v>192418</v>
+      </c>
+      <c r="Y18">
+        <v>200784</v>
+      </c>
+      <c r="Z18">
+        <v>209150</v>
+      </c>
+      <c r="AA18">
+        <v>217516</v>
+      </c>
+      <c r="AB18">
+        <v>225882</v>
+      </c>
+      <c r="AC18">
+        <v>234248</v>
+      </c>
+      <c r="AD18">
+        <v>242614</v>
+      </c>
+      <c r="AE18">
+        <v>250980</v>
+      </c>
+      <c r="AF18">
+        <v>259346</v>
+      </c>
+      <c r="AG18">
+        <v>267712</v>
+      </c>
+      <c r="AH18">
+        <v>276078</v>
+      </c>
+      <c r="AI18">
+        <v>284444</v>
+      </c>
+      <c r="AJ18">
+        <v>292810</v>
+      </c>
+      <c r="AK18">
+        <v>301176</v>
+      </c>
+      <c r="AL18">
+        <v>309542</v>
+      </c>
+      <c r="AM18">
+        <v>317908</v>
+      </c>
+      <c r="AN18">
+        <v>326274</v>
+      </c>
+      <c r="AO18">
+        <v>334640</v>
+      </c>
+      <c r="AP18">
+        <v>343006</v>
+      </c>
+      <c r="AQ18">
+        <v>351372</v>
+      </c>
+      <c r="AR18">
+        <v>359738</v>
+      </c>
+      <c r="AS18">
+        <v>368104</v>
+      </c>
+      <c r="AT18">
+        <v>376470</v>
+      </c>
+      <c r="AU18">
+        <v>384836</v>
+      </c>
+      <c r="AV18">
+        <v>393202</v>
+      </c>
+      <c r="AW18">
+        <v>401568</v>
+      </c>
+      <c r="AX18">
+        <v>409934</v>
+      </c>
+      <c r="AY18">
+        <v>418300</v>
+      </c>
+      <c r="AZ18">
+        <v>426666</v>
+      </c>
+      <c r="BA18">
+        <v>435032</v>
+      </c>
+      <c r="BB18">
+        <v>443398</v>
+      </c>
+      <c r="BC18">
+        <v>451764</v>
+      </c>
+      <c r="BD18">
+        <v>460130</v>
+      </c>
+      <c r="BE18">
+        <v>468496</v>
+      </c>
+      <c r="BF18">
+        <v>476862</v>
+      </c>
+      <c r="BG18">
+        <v>485228</v>
+      </c>
+      <c r="BH18">
+        <v>493594</v>
+      </c>
+      <c r="BI18">
+        <v>501960</v>
+      </c>
+      <c r="BJ18">
+        <v>510326</v>
+      </c>
+      <c r="BK18">
+        <v>518692</v>
+      </c>
+      <c r="BL18">
+        <v>527058</v>
+      </c>
+      <c r="BM18">
+        <v>535424</v>
+      </c>
+      <c r="BN18">
+        <v>543790</v>
+      </c>
+      <c r="BO18">
+        <v>552156</v>
+      </c>
+      <c r="BP18">
+        <v>560522</v>
+      </c>
+      <c r="BQ18">
+        <v>568888</v>
+      </c>
+      <c r="BR18">
+        <v>577254</v>
+      </c>
+      <c r="BS18">
+        <v>585620</v>
+      </c>
+      <c r="BT18">
+        <v>593986</v>
+      </c>
+      <c r="BU18">
+        <v>602352</v>
+      </c>
+      <c r="BV18">
+        <v>610718</v>
+      </c>
+      <c r="BW18">
+        <v>619084</v>
+      </c>
+      <c r="BX18">
+        <v>627450</v>
+      </c>
+      <c r="BY18">
+        <v>635816</v>
+      </c>
+      <c r="BZ18">
+        <v>644182</v>
+      </c>
+      <c r="CA18">
+        <v>652548</v>
+      </c>
+      <c r="CB18">
+        <v>660914</v>
+      </c>
+      <c r="CC18">
+        <v>669280</v>
+      </c>
+      <c r="CD18">
+        <v>677646</v>
+      </c>
+      <c r="CE18">
+        <v>686012</v>
+      </c>
+      <c r="CF18">
+        <v>694378</v>
+      </c>
+      <c r="CG18">
+        <v>702744</v>
+      </c>
+      <c r="CH18">
+        <v>711110</v>
+      </c>
+      <c r="CI18">
+        <v>719476</v>
+      </c>
+      <c r="CJ18">
+        <v>727842</v>
+      </c>
+      <c r="CK18">
+        <v>736208</v>
+      </c>
+      <c r="CL18">
+        <v>744574</v>
+      </c>
+      <c r="CM18">
+        <v>752940</v>
+      </c>
+      <c r="CN18">
+        <v>761306</v>
+      </c>
+      <c r="CO18">
+        <v>769672</v>
+      </c>
+      <c r="CP18">
+        <v>778038</v>
+      </c>
+      <c r="CQ18">
+        <v>786404</v>
+      </c>
+      <c r="CR18">
+        <v>794770</v>
+      </c>
+      <c r="CS18">
+        <v>803136</v>
+      </c>
+      <c r="CT18">
+        <v>811502</v>
+      </c>
+      <c r="CU18">
+        <v>819868</v>
+      </c>
+      <c r="CV18">
+        <v>828234</v>
+      </c>
+      <c r="CW18">
+        <v>836600</v>
+      </c>
+      <c r="CX18">
+        <v>844966</v>
+      </c>
+      <c r="CY18">
+        <v>853332</v>
+      </c>
+      <c r="CZ18">
+        <v>861698</v>
+      </c>
+      <c r="DA18">
+        <v>870064</v>
+      </c>
+      <c r="DB18">
+        <v>878430</v>
+      </c>
+      <c r="DC18">
+        <v>886796</v>
+      </c>
+      <c r="DD18">
+        <v>895162</v>
+      </c>
+      <c r="DE18">
+        <v>903528</v>
+      </c>
+      <c r="DF18">
+        <v>911894</v>
+      </c>
+      <c r="DG18">
+        <v>920260</v>
+      </c>
+      <c r="DH18">
+        <v>928626</v>
+      </c>
+      <c r="DI18">
+        <v>936992</v>
+      </c>
+      <c r="DJ18">
+        <v>945358</v>
+      </c>
+      <c r="DK18">
+        <v>953724</v>
+      </c>
+      <c r="DL18">
+        <v>962090</v>
+      </c>
+      <c r="DM18">
+        <v>970456</v>
+      </c>
+      <c r="DN18">
+        <v>978822</v>
+      </c>
+      <c r="DO18">
+        <v>987188</v>
+      </c>
+      <c r="DP18">
+        <v>995554</v>
+      </c>
+      <c r="DQ18">
+        <v>1003920</v>
+      </c>
+      <c r="DR18">
+        <v>1012286</v>
+      </c>
+      <c r="DS18">
+        <v>1020652</v>
+      </c>
+      <c r="DT18">
+        <v>1029018</v>
+      </c>
+      <c r="DU18">
+        <v>1037384</v>
+      </c>
+      <c r="DV18">
+        <v>1045750</v>
+      </c>
+      <c r="DW18">
+        <v>1054116</v>
+      </c>
+      <c r="DX18">
+        <v>1062482</v>
+      </c>
+      <c r="DY18" t="e">
+        <f t="shared" ref="BN18:DY18" si="8">$A1 *5/( 5-(2*DY17))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DZ18">
+        <f t="shared" ref="DZ18:GK18" si="9">$A1 *5/( 5-(2*DZ17))</f>
+        <v>-6656000</v>
+      </c>
+      <c r="EA18">
+        <f t="shared" si="9"/>
+        <v>-3328000</v>
+      </c>
+      <c r="EB18">
+        <f t="shared" si="9"/>
+        <v>-2218666.6666666665</v>
+      </c>
+      <c r="EC18">
+        <f t="shared" si="9"/>
+        <v>-1664000</v>
+      </c>
+      <c r="ED18">
+        <f t="shared" si="9"/>
+        <v>-1331200</v>
+      </c>
+      <c r="EE18">
+        <f t="shared" si="9"/>
+        <v>-1109333.3333333333</v>
+      </c>
+      <c r="EF18">
+        <f t="shared" si="9"/>
+        <v>-950857.14285714284</v>
+      </c>
+      <c r="EG18">
+        <f t="shared" si="9"/>
+        <v>-832000</v>
+      </c>
+      <c r="EH18">
+        <f t="shared" si="9"/>
+        <v>-739555.5555555555</v>
+      </c>
+      <c r="EI18">
+        <f t="shared" si="9"/>
+        <v>-665600</v>
+      </c>
+      <c r="EJ18">
+        <f t="shared" si="9"/>
+        <v>-605090.90909090906</v>
+      </c>
+      <c r="EK18">
+        <f t="shared" si="9"/>
+        <v>-554666.66666666663</v>
+      </c>
+      <c r="EL18">
+        <f t="shared" si="9"/>
+        <v>-512000</v>
+      </c>
+      <c r="EM18">
+        <f t="shared" si="9"/>
+        <v>-475428.57142857142</v>
+      </c>
+      <c r="EN18">
+        <f t="shared" si="9"/>
+        <v>-443733.33333333331</v>
+      </c>
+      <c r="EO18">
+        <f t="shared" si="9"/>
+        <v>-416000</v>
+      </c>
+      <c r="EP18">
+        <f t="shared" si="9"/>
+        <v>-391529.4117647059</v>
+      </c>
+      <c r="EQ18">
+        <f t="shared" si="9"/>
+        <v>-369777.77777777775</v>
+      </c>
+      <c r="ER18">
+        <f t="shared" si="9"/>
+        <v>-350315.78947368421</v>
+      </c>
+      <c r="ES18">
+        <f t="shared" si="9"/>
+        <v>-332800</v>
+      </c>
+      <c r="ET18">
+        <f t="shared" si="9"/>
+        <v>-316952.38095238095</v>
+      </c>
+      <c r="EU18">
+        <f t="shared" si="9"/>
+        <v>-302545.45454545453</v>
+      </c>
+      <c r="EV18">
+        <f t="shared" si="9"/>
+        <v>-289391.30434782611</v>
+      </c>
+      <c r="EW18">
+        <f t="shared" si="9"/>
+        <v>-277333.33333333331</v>
+      </c>
+      <c r="EX18">
+        <f t="shared" si="9"/>
+        <v>-266240</v>
+      </c>
+      <c r="EY18">
+        <f t="shared" si="9"/>
+        <v>-256000</v>
+      </c>
+      <c r="EZ18">
+        <f t="shared" si="9"/>
+        <v>-246518.51851851851</v>
+      </c>
+      <c r="FA18">
+        <f t="shared" si="9"/>
+        <v>-237714.28571428571</v>
+      </c>
+      <c r="FB18">
+        <f t="shared" si="9"/>
+        <v>-229517.24137931035</v>
+      </c>
+      <c r="FC18">
+        <f t="shared" si="9"/>
+        <v>-221866.66666666666</v>
+      </c>
+      <c r="FD18">
+        <f t="shared" si="9"/>
+        <v>-214709.67741935485</v>
+      </c>
+      <c r="FE18">
+        <f t="shared" si="9"/>
+        <v>-208000</v>
+      </c>
+      <c r="FF18">
+        <f t="shared" si="9"/>
+        <v>-201696.9696969697</v>
+      </c>
+      <c r="FG18">
+        <f t="shared" si="9"/>
+        <v>-195764.70588235295</v>
+      </c>
+      <c r="FH18">
+        <f t="shared" si="9"/>
+        <v>-190171.42857142858</v>
+      </c>
+      <c r="FI18">
+        <f t="shared" si="9"/>
+        <v>-184888.88888888888</v>
+      </c>
+      <c r="FJ18">
+        <f t="shared" si="9"/>
+        <v>-179891.89189189189</v>
+      </c>
+      <c r="FK18">
+        <f t="shared" si="9"/>
+        <v>-175157.89473684211</v>
+      </c>
+      <c r="FL18">
+        <f t="shared" si="9"/>
+        <v>-170666.66666666666</v>
+      </c>
+      <c r="FM18">
+        <f t="shared" si="9"/>
+        <v>-166400</v>
+      </c>
+      <c r="FN18">
+        <f t="shared" si="9"/>
+        <v>-162341.46341463414</v>
+      </c>
+      <c r="FO18">
+        <f t="shared" si="9"/>
+        <v>-158476.19047619047</v>
+      </c>
+      <c r="FP18">
+        <f t="shared" si="9"/>
+        <v>-154790.6976744186</v>
+      </c>
+      <c r="FQ18">
+        <f t="shared" si="9"/>
+        <v>-151272.72727272726</v>
+      </c>
+      <c r="FR18">
+        <f t="shared" si="9"/>
+        <v>-147911.11111111112</v>
+      </c>
+      <c r="FS18">
+        <f t="shared" si="9"/>
+        <v>-144695.65217391305</v>
+      </c>
+      <c r="FT18">
+        <f t="shared" si="9"/>
+        <v>-141617.02127659574</v>
+      </c>
+      <c r="FU18">
+        <f t="shared" si="9"/>
+        <v>-138666.66666666666</v>
+      </c>
+      <c r="FV18">
+        <f t="shared" si="9"/>
+        <v>-135836.73469387754</v>
+      </c>
+      <c r="FW18">
+        <f t="shared" si="9"/>
+        <v>-133120</v>
+      </c>
+      <c r="FX18">
+        <f t="shared" si="9"/>
+        <v>-130509.80392156863</v>
+      </c>
+      <c r="FY18">
+        <f t="shared" si="9"/>
+        <v>-128000</v>
+      </c>
+      <c r="FZ18">
+        <f t="shared" si="9"/>
+        <v>-125584.90566037736</v>
+      </c>
+      <c r="GA18">
+        <f t="shared" si="9"/>
+        <v>-123259.25925925926</v>
+      </c>
+      <c r="GB18">
+        <f t="shared" si="9"/>
+        <v>-121018.18181818182</v>
+      </c>
+      <c r="GC18">
+        <f t="shared" si="9"/>
+        <v>-118857.14285714286</v>
+      </c>
+      <c r="GD18">
+        <f t="shared" si="9"/>
+        <v>-116771.9298245614</v>
+      </c>
+      <c r="GE18">
+        <f t="shared" si="9"/>
+        <v>-114758.62068965517</v>
+      </c>
+      <c r="GF18">
+        <f t="shared" si="9"/>
+        <v>-112813.55932203389</v>
+      </c>
+      <c r="GG18">
+        <f t="shared" si="9"/>
+        <v>-110933.33333333333</v>
+      </c>
+      <c r="GH18">
+        <f t="shared" si="9"/>
+        <v>-109114.75409836066</v>
+      </c>
+      <c r="GI18">
+        <f t="shared" si="9"/>
+        <v>-107354.83870967742</v>
+      </c>
+      <c r="GJ18">
+        <f t="shared" si="9"/>
+        <v>-105650.79365079365</v>
+      </c>
+      <c r="GK18">
+        <f t="shared" si="9"/>
+        <v>-104000</v>
+      </c>
+      <c r="GL18">
+        <f t="shared" ref="GL18:IV18" si="10">$A1 *5/( 5-(2*GL17))</f>
+        <v>-102400</v>
+      </c>
+      <c r="GM18">
+        <f t="shared" si="10"/>
+        <v>-100848.48484848485</v>
+      </c>
+      <c r="GN18">
+        <f t="shared" si="10"/>
+        <v>-99343.283582089556</v>
+      </c>
+      <c r="GO18">
+        <f t="shared" si="10"/>
+        <v>-97882.352941176476</v>
+      </c>
+      <c r="GP18">
+        <f t="shared" si="10"/>
+        <v>-96463.768115942032</v>
+      </c>
+      <c r="GQ18">
+        <f t="shared" si="10"/>
+        <v>-95085.71428571429</v>
+      </c>
+      <c r="GR18">
+        <f t="shared" si="10"/>
+        <v>-93746.478873239437</v>
+      </c>
+      <c r="GS18">
+        <f t="shared" si="10"/>
+        <v>-92444.444444444438</v>
+      </c>
+      <c r="GT18">
+        <f t="shared" si="10"/>
+        <v>-91178.082191780821</v>
+      </c>
+      <c r="GU18">
+        <f t="shared" si="10"/>
+        <v>-89945.945945945947</v>
+      </c>
+      <c r="GV18">
+        <f t="shared" si="10"/>
+        <v>-88746.666666666672</v>
+      </c>
+      <c r="GW18">
+        <f t="shared" si="10"/>
+        <v>-87578.947368421053</v>
+      </c>
+      <c r="GX18">
+        <f t="shared" si="10"/>
+        <v>-86441.558441558445</v>
+      </c>
+      <c r="GY18">
+        <f t="shared" si="10"/>
+        <v>-85333.333333333328</v>
+      </c>
+      <c r="GZ18">
+        <f t="shared" si="10"/>
+        <v>-84253.16455696203</v>
+      </c>
+      <c r="HA18">
+        <f t="shared" si="10"/>
+        <v>-83200</v>
+      </c>
+      <c r="HB18">
+        <f t="shared" si="10"/>
+        <v>-82172.839506172837</v>
+      </c>
+      <c r="HC18">
+        <f t="shared" si="10"/>
+        <v>-81170.731707317071</v>
+      </c>
+      <c r="HD18">
+        <f t="shared" si="10"/>
+        <v>-80192.77108433735</v>
+      </c>
+      <c r="HE18">
+        <f t="shared" si="10"/>
+        <v>-79238.095238095237</v>
+      </c>
+      <c r="HF18">
+        <f t="shared" si="10"/>
+        <v>-78305.882352941175</v>
+      </c>
+      <c r="HG18">
+        <f t="shared" si="10"/>
+        <v>-77395.348837209298</v>
+      </c>
+      <c r="HH18">
+        <f t="shared" si="10"/>
+        <v>-76505.747126436778</v>
+      </c>
+      <c r="HI18">
+        <f t="shared" si="10"/>
+        <v>-75636.363636363632</v>
+      </c>
+      <c r="HJ18">
+        <f t="shared" si="10"/>
+        <v>-74786.516853932582</v>
+      </c>
+      <c r="HK18">
+        <f t="shared" si="10"/>
+        <v>-73955.555555555562</v>
+      </c>
+      <c r="HL18">
+        <f t="shared" si="10"/>
+        <v>-73142.857142857145</v>
+      </c>
+      <c r="HM18">
+        <f t="shared" si="10"/>
+        <v>-72347.826086956527</v>
+      </c>
+      <c r="HN18">
+        <f t="shared" si="10"/>
+        <v>-71569.892473118278</v>
+      </c>
+      <c r="HO18">
+        <f t="shared" si="10"/>
+        <v>-70808.51063829787</v>
+      </c>
+      <c r="HP18">
+        <f t="shared" si="10"/>
+        <v>-70063.15789473684</v>
+      </c>
+      <c r="HQ18">
+        <f t="shared" si="10"/>
+        <v>-69333.333333333328</v>
+      </c>
+      <c r="HR18">
+        <f t="shared" si="10"/>
+        <v>-68618.556701030931</v>
+      </c>
+      <c r="HS18">
+        <f t="shared" si="10"/>
+        <v>-67918.367346938772</v>
+      </c>
+      <c r="HT18">
+        <f t="shared" si="10"/>
+        <v>-67232.323232323237</v>
+      </c>
+      <c r="HU18">
+        <f t="shared" si="10"/>
+        <v>-66560</v>
+      </c>
+      <c r="HV18">
+        <f t="shared" si="10"/>
+        <v>-65900.990099009898</v>
+      </c>
+      <c r="HW18">
+        <f t="shared" si="10"/>
+        <v>-65254.901960784315</v>
+      </c>
+      <c r="HX18">
+        <f t="shared" si="10"/>
+        <v>-64621.359223300969</v>
+      </c>
+      <c r="HY18">
+        <f t="shared" si="10"/>
+        <v>-64000</v>
+      </c>
+      <c r="HZ18">
+        <f t="shared" si="10"/>
+        <v>-63390.476190476191</v>
+      </c>
+      <c r="IA18">
+        <f t="shared" si="10"/>
+        <v>-62792.452830188682</v>
+      </c>
+      <c r="IB18">
+        <f t="shared" si="10"/>
+        <v>-62205.607476635516</v>
+      </c>
+      <c r="IC18">
+        <f t="shared" si="10"/>
+        <v>-61629.629629629628</v>
+      </c>
+      <c r="ID18">
+        <f t="shared" si="10"/>
+        <v>-61064.220183486235</v>
+      </c>
+      <c r="IE18">
+        <f t="shared" si="10"/>
+        <v>-60509.090909090912</v>
+      </c>
+      <c r="IF18">
+        <f t="shared" si="10"/>
+        <v>-59963.963963963964</v>
+      </c>
+      <c r="IG18">
+        <f t="shared" si="10"/>
+        <v>-59428.571428571428</v>
+      </c>
+      <c r="IH18">
+        <f t="shared" si="10"/>
+        <v>-58902.654867256635</v>
+      </c>
+      <c r="II18">
+        <f t="shared" si="10"/>
+        <v>-58385.964912280702</v>
+      </c>
+      <c r="IJ18">
+        <f t="shared" si="10"/>
+        <v>-57878.260869565216</v>
+      </c>
+      <c r="IK18">
+        <f t="shared" si="10"/>
+        <v>-57379.310344827587</v>
+      </c>
+      <c r="IL18">
+        <f t="shared" si="10"/>
+        <v>-56888.888888888891</v>
+      </c>
+      <c r="IM18">
+        <f t="shared" si="10"/>
+        <v>-56406.779661016946</v>
+      </c>
+      <c r="IN18">
+        <f t="shared" si="10"/>
+        <v>-55932.773109243695</v>
+      </c>
+      <c r="IO18">
+        <f t="shared" si="10"/>
+        <v>-55466.666666666664</v>
+      </c>
+      <c r="IP18">
+        <f t="shared" si="10"/>
+        <v>-55008.264462809915</v>
+      </c>
+      <c r="IQ18">
+        <f t="shared" si="10"/>
+        <v>-54557.37704918033</v>
+      </c>
+      <c r="IR18">
+        <f t="shared" si="10"/>
+        <v>-54113.82113821138</v>
+      </c>
+      <c r="IS18">
+        <f t="shared" si="10"/>
+        <v>-53677.419354838712</v>
+      </c>
+      <c r="IT18">
+        <f t="shared" si="10"/>
+        <v>-53248</v>
+      </c>
+      <c r="IU18">
+        <f t="shared" si="10"/>
+        <v>-52825.396825396827</v>
+      </c>
+      <c r="IV18">
+        <f t="shared" si="10"/>
+        <v>-52409.448818897639</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <f>D9*(D10-D8)+D7</f>
-        <v>91</v>
-      </c>
-      <c r="E11">
-        <f t="shared" ref="E11:W11" si="4">E9*(E10-E8)+E7</f>
-        <v>37.5</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="4"/>
-        <v>31</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="4"/>
-        <v>28.75</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="4"/>
-        <v>26.666666666666668</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="4"/>
-        <v>20.5</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="4"/>
-        <v>19.5</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="4"/>
-        <v>19.5</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="4"/>
-        <v>16</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="4"/>
-        <v>15.4</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="4"/>
-        <v>10.428571428571429</v>
-      </c>
-      <c r="O11">
-        <f t="shared" si="4"/>
-        <v>7.7692307692307692</v>
-      </c>
-      <c r="P11">
-        <f t="shared" si="4"/>
-        <v>5.117647058823529</v>
-      </c>
-      <c r="Q11">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="R11">
-        <f t="shared" si="4"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="S11">
-        <f t="shared" si="4"/>
-        <v>3.3636363636363638</v>
-      </c>
-      <c r="T11">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="U11">
-        <f t="shared" si="4"/>
-        <v>2.125</v>
-      </c>
-      <c r="V11">
-        <f t="shared" si="4"/>
-        <v>1.8</v>
-      </c>
-      <c r="W11">
-        <f t="shared" si="4"/>
-        <v>0.87631578947368427</v>
+    <row r="19" spans="1:256" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f>$A1 *5/( 5-(2*A17))</f>
+        <v>52000</v>
+      </c>
+      <c r="B19">
+        <f>$A1 *5/( 5-(2*B17))</f>
+        <v>52409.448818897639</v>
+      </c>
+      <c r="C19">
+        <f>$A1 *5/( 5-(2*C17))</f>
+        <v>52825.396825396827</v>
+      </c>
+      <c r="D19">
+        <f>$A1 *5/( 5-(2*D17))</f>
+        <v>53248</v>
+      </c>
+      <c r="E19">
+        <f>$A1 *5/( 5-(2*E17))</f>
+        <v>53677.419354838712</v>
+      </c>
+      <c r="F19">
+        <f>$A1 *5/( 5-(2*F17))</f>
+        <v>54113.82113821138</v>
+      </c>
+      <c r="G19">
+        <f>$A1 *5/( 5-(2*G17))</f>
+        <v>54557.37704918033</v>
+      </c>
+      <c r="H19">
+        <f>$A1 *5/( 5-(2*H17))</f>
+        <v>55008.264462809915</v>
+      </c>
+      <c r="I19">
+        <f>$A1 *5/( 5-(2*I17))</f>
+        <v>55466.666666666664</v>
+      </c>
+      <c r="J19">
+        <f>$A1 *5/( 5-(2*J17))</f>
+        <v>55932.773109243695</v>
+      </c>
+      <c r="K19">
+        <f>$A1 *5/( 5-(2*K17))</f>
+        <v>56406.779661016946</v>
+      </c>
+      <c r="L19">
+        <f>$A1 *5/( 5-(2*L17))</f>
+        <v>56888.888888888891</v>
+      </c>
+      <c r="M19">
+        <f>$A1 *5/( 5-(2*M17))</f>
+        <v>57379.310344827587</v>
+      </c>
+      <c r="N19">
+        <f>$A1 *5/( 5-(2*N17))</f>
+        <v>57878.260869565216</v>
+      </c>
+      <c r="O19">
+        <f>$A1 *5/( 5-(2*O17))</f>
+        <v>58385.964912280702</v>
+      </c>
+      <c r="P19">
+        <f>$A1 *5/( 5-(2*P17))</f>
+        <v>58902.654867256635</v>
+      </c>
+      <c r="Q19">
+        <f>$A1 *5/( 5-(2*Q17))</f>
+        <v>59428.571428571428</v>
+      </c>
+      <c r="R19">
+        <f>$A1 *5/( 5-(2*R17))</f>
+        <v>59963.963963963964</v>
+      </c>
+      <c r="S19">
+        <f>$A1 *5/( 5-(2*S17))</f>
+        <v>60509.090909090912</v>
+      </c>
+      <c r="T19">
+        <f>$A1 *5/( 5-(2*T17))</f>
+        <v>61064.220183486235</v>
+      </c>
+      <c r="U19">
+        <f>$A1 *5/( 5-(2*U17))</f>
+        <v>61629.629629629628</v>
+      </c>
+      <c r="V19">
+        <f>$A1 *5/( 5-(2*V17))</f>
+        <v>62205.607476635516</v>
+      </c>
+      <c r="W19">
+        <f>$A1 *5/( 5-(2*W17))</f>
+        <v>62792.452830188682</v>
+      </c>
+      <c r="X19">
+        <f>$A1 *5/( 5-(2*X17))</f>
+        <v>63390.476190476191</v>
+      </c>
+      <c r="Y19">
+        <f>$A1 *5/( 5-(2*Y17))</f>
+        <v>64000</v>
+      </c>
+      <c r="Z19">
+        <f>$A1 *5/( 5-(2*Z17))</f>
+        <v>64621.359223300969</v>
+      </c>
+      <c r="AA19">
+        <f>$A1 *5/( 5-(2*AA17))</f>
+        <v>65254.901960784315</v>
+      </c>
+      <c r="AB19">
+        <f>$A1 *5/( 5-(2*AB17))</f>
+        <v>65900.990099009898</v>
+      </c>
+      <c r="AC19">
+        <f>$A1 *5/( 5-(2*AC17))</f>
+        <v>66560</v>
+      </c>
+      <c r="AD19">
+        <f>$A1 *5/( 5-(2*AD17))</f>
+        <v>67232.323232323237</v>
+      </c>
+      <c r="AE19">
+        <f>$A1 *5/( 5-(2*AE17))</f>
+        <v>67918.367346938772</v>
+      </c>
+      <c r="AF19">
+        <f>$A1 *5/( 5-(2*AF17))</f>
+        <v>68618.556701030931</v>
+      </c>
+      <c r="AG19">
+        <f>$A1 *5/( 5-(2*AG17))</f>
+        <v>69333.333333333328</v>
+      </c>
+      <c r="AH19">
+        <f>$A1 *5/( 5-(2*AH17))</f>
+        <v>70063.15789473684</v>
+      </c>
+      <c r="AI19">
+        <f>$A1 *5/( 5-(2*AI17))</f>
+        <v>70808.51063829787</v>
+      </c>
+      <c r="AJ19">
+        <f>$A1 *5/( 5-(2*AJ17))</f>
+        <v>71569.892473118278</v>
+      </c>
+      <c r="AK19">
+        <f>$A1 *5/( 5-(2*AK17))</f>
+        <v>72347.826086956527</v>
+      </c>
+      <c r="AL19">
+        <f>$A1 *5/( 5-(2*AL17))</f>
+        <v>73142.857142857145</v>
+      </c>
+      <c r="AM19">
+        <f>$A1 *5/( 5-(2*AM17))</f>
+        <v>73955.555555555562</v>
+      </c>
+      <c r="AN19">
+        <f>$A1 *5/( 5-(2*AN17))</f>
+        <v>74786.516853932582</v>
+      </c>
+      <c r="AO19">
+        <f>$A1 *5/( 5-(2*AO17))</f>
+        <v>75636.363636363632</v>
+      </c>
+      <c r="AP19">
+        <f>$A1 *5/( 5-(2*AP17))</f>
+        <v>76505.747126436778</v>
+      </c>
+      <c r="AQ19">
+        <f>$A1 *5/( 5-(2*AQ17))</f>
+        <v>77395.348837209298</v>
+      </c>
+      <c r="AR19">
+        <f>$A1 *5/( 5-(2*AR17))</f>
+        <v>78305.882352941175</v>
+      </c>
+      <c r="AS19">
+        <f>$A1 *5/( 5-(2*AS17))</f>
+        <v>79238.095238095237</v>
+      </c>
+      <c r="AT19">
+        <f>$A1 *5/( 5-(2*AT17))</f>
+        <v>80192.77108433735</v>
+      </c>
+      <c r="AU19">
+        <f>$A1 *5/( 5-(2*AU17))</f>
+        <v>81170.731707317071</v>
+      </c>
+      <c r="AV19">
+        <f>$A1 *5/( 5-(2*AV17))</f>
+        <v>82172.839506172837</v>
+      </c>
+      <c r="AW19">
+        <f>$A1 *5/( 5-(2*AW17))</f>
+        <v>83200</v>
+      </c>
+      <c r="AX19">
+        <f>$A1 *5/( 5-(2*AX17))</f>
+        <v>84253.16455696203</v>
+      </c>
+      <c r="AY19">
+        <f>$A1 *5/( 5-(2*AY17))</f>
+        <v>85333.333333333328</v>
+      </c>
+      <c r="AZ19">
+        <f>$A1 *5/( 5-(2*AZ17))</f>
+        <v>86441.558441558445</v>
+      </c>
+      <c r="BA19">
+        <f>$A1 *5/( 5-(2*BA17))</f>
+        <v>87578.947368421053</v>
+      </c>
+      <c r="BB19">
+        <f>$A1 *5/( 5-(2*BB17))</f>
+        <v>88746.666666666672</v>
+      </c>
+      <c r="BC19">
+        <f>$A1 *5/( 5-(2*BC17))</f>
+        <v>89945.945945945947</v>
+      </c>
+      <c r="BD19">
+        <f>$A1 *5/( 5-(2*BD17))</f>
+        <v>91178.082191780821</v>
+      </c>
+      <c r="BE19">
+        <f>$A1 *5/( 5-(2*BE17))</f>
+        <v>92444.444444444438</v>
+      </c>
+      <c r="BF19">
+        <f>$A1 *5/( 5-(2*BF17))</f>
+        <v>93746.478873239437</v>
+      </c>
+      <c r="BG19">
+        <f>$A1 *5/( 5-(2*BG17))</f>
+        <v>95085.71428571429</v>
+      </c>
+      <c r="BH19">
+        <f>$A1 *5/( 5-(2*BH17))</f>
+        <v>96463.768115942032</v>
+      </c>
+      <c r="BI19">
+        <f>$A1 *5/( 5-(2*BI17))</f>
+        <v>97882.352941176476</v>
+      </c>
+      <c r="BJ19">
+        <f>$A1 *5/( 5-(2*BJ17))</f>
+        <v>99343.283582089556</v>
+      </c>
+      <c r="BK19">
+        <f>$A1 *5/( 5-(2*BK17))</f>
+        <v>100848.48484848485</v>
+      </c>
+      <c r="BL19">
+        <f>$A1 *5/( 5-(2*BL17))</f>
+        <v>102400</v>
+      </c>
+      <c r="BM19">
+        <f>$A1 *5/( 5-(2*BM17))</f>
+        <v>104000</v>
+      </c>
+      <c r="BN19">
+        <f>$A1 *5/( 5-(2*BN17))</f>
+        <v>105650.79365079365</v>
+      </c>
+      <c r="BO19">
+        <f>$A1 *5/( 5-(2*BO17))</f>
+        <v>107354.83870967742</v>
+      </c>
+      <c r="BP19">
+        <f>$A1 *5/( 5-(2*BP17))</f>
+        <v>109114.75409836066</v>
+      </c>
+      <c r="BQ19">
+        <f>$A1 *5/( 5-(2*BQ17))</f>
+        <v>110933.33333333333</v>
+      </c>
+      <c r="BR19">
+        <f>$A1 *5/( 5-(2*BR17))</f>
+        <v>112813.55932203389</v>
+      </c>
+      <c r="BS19">
+        <f>$A1 *5/( 5-(2*BS17))</f>
+        <v>114758.62068965517</v>
+      </c>
+      <c r="BT19">
+        <f>$A1 *5/( 5-(2*BT17))</f>
+        <v>116771.9298245614</v>
+      </c>
+      <c r="BU19">
+        <f>$A1 *5/( 5-(2*BU17))</f>
+        <v>118857.14285714286</v>
+      </c>
+      <c r="BV19">
+        <f>$A1 *5/( 5-(2*BV17))</f>
+        <v>121018.18181818182</v>
+      </c>
+      <c r="BW19">
+        <f>$A1 *5/( 5-(2*BW17))</f>
+        <v>123259.25925925926</v>
+      </c>
+      <c r="BX19">
+        <f>$A1 *5/( 5-(2*BX17))</f>
+        <v>125584.90566037736</v>
+      </c>
+      <c r="BY19">
+        <f>$A1 *5/( 5-(2*BY17))</f>
+        <v>128000</v>
+      </c>
+      <c r="BZ19">
+        <f>$A1 *5/( 5-(2*BZ17))</f>
+        <v>130509.80392156863</v>
+      </c>
+      <c r="CA19">
+        <f>$A1 *5/( 5-(2*CA17))</f>
+        <v>133120</v>
+      </c>
+      <c r="CB19">
+        <f>$A1 *5/( 5-(2*CB17))</f>
+        <v>135836.73469387754</v>
+      </c>
+      <c r="CC19">
+        <f>$A1 *5/( 5-(2*CC17))</f>
+        <v>138666.66666666666</v>
+      </c>
+      <c r="CD19">
+        <f>$A1 *5/( 5-(2*CD17))</f>
+        <v>141617.02127659574</v>
+      </c>
+      <c r="CE19">
+        <f>$A1 *5/( 5-(2*CE17))</f>
+        <v>144695.65217391305</v>
+      </c>
+      <c r="CF19">
+        <f>$A1 *5/( 5-(2*CF17))</f>
+        <v>147911.11111111112</v>
+      </c>
+      <c r="CG19">
+        <f>$A1 *5/( 5-(2*CG17))</f>
+        <v>151272.72727272726</v>
+      </c>
+      <c r="CH19">
+        <f>$A1 *5/( 5-(2*CH17))</f>
+        <v>154790.6976744186</v>
+      </c>
+      <c r="CI19">
+        <f>$A1 *5/( 5-(2*CI17))</f>
+        <v>158476.19047619047</v>
+      </c>
+      <c r="CJ19">
+        <f>$A1 *5/( 5-(2*CJ17))</f>
+        <v>162341.46341463414</v>
+      </c>
+      <c r="CK19">
+        <f>$A1 *5/( 5-(2*CK17))</f>
+        <v>166400</v>
+      </c>
+      <c r="CL19">
+        <f>$A1 *5/( 5-(2*CL17))</f>
+        <v>170666.66666666666</v>
+      </c>
+      <c r="CM19">
+        <f>$A1 *5/( 5-(2*CM17))</f>
+        <v>175157.89473684211</v>
+      </c>
+      <c r="CN19">
+        <f>$A1 *5/( 5-(2*CN17))</f>
+        <v>179891.89189189189</v>
+      </c>
+      <c r="CO19">
+        <f>$A1 *5/( 5-(2*CO17))</f>
+        <v>184888.88888888888</v>
+      </c>
+      <c r="CP19">
+        <f>$A1 *5/( 5-(2*CP17))</f>
+        <v>190171.42857142858</v>
+      </c>
+      <c r="CQ19">
+        <f>$A1 *5/( 5-(2*CQ17))</f>
+        <v>195764.70588235295</v>
+      </c>
+      <c r="CR19">
+        <f>$A1 *5/( 5-(2*CR17))</f>
+        <v>201696.9696969697</v>
+      </c>
+      <c r="CS19">
+        <f>$A1 *5/( 5-(2*CS17))</f>
+        <v>208000</v>
+      </c>
+      <c r="CT19">
+        <f>$A1 *5/( 5-(2*CT17))</f>
+        <v>214709.67741935485</v>
+      </c>
+      <c r="CU19">
+        <f>$A1 *5/( 5-(2*CU17))</f>
+        <v>221866.66666666666</v>
+      </c>
+      <c r="CV19">
+        <f>$A1 *5/( 5-(2*CV17))</f>
+        <v>229517.24137931035</v>
+      </c>
+      <c r="CW19">
+        <f>$A1 *5/( 5-(2*CW17))</f>
+        <v>237714.28571428571</v>
+      </c>
+      <c r="CX19">
+        <f>$A1 *5/( 5-(2*CX17))</f>
+        <v>246518.51851851851</v>
+      </c>
+      <c r="CY19">
+        <f>$A1 *5/( 5-(2*CY17))</f>
+        <v>256000</v>
+      </c>
+      <c r="CZ19">
+        <f>$A1 *5/( 5-(2*CZ17))</f>
+        <v>266240</v>
+      </c>
+      <c r="DA19">
+        <f>$A1 *5/( 5-(2*DA17))</f>
+        <v>277333.33333333331</v>
+      </c>
+      <c r="DB19">
+        <f>$A1 *5/( 5-(2*DB17))</f>
+        <v>289391.30434782611</v>
+      </c>
+      <c r="DC19">
+        <f>$A1 *5/( 5-(2*DC17))</f>
+        <v>302545.45454545453</v>
+      </c>
+      <c r="DD19">
+        <f>$A1 *5/( 5-(2*DD17))</f>
+        <v>316952.38095238095</v>
+      </c>
+      <c r="DE19">
+        <f>$A1 *5/( 5-(2*DE17))</f>
+        <v>332800</v>
+      </c>
+      <c r="DF19">
+        <f>$A1 *5/( 5-(2*DF17))</f>
+        <v>350315.78947368421</v>
+      </c>
+      <c r="DG19">
+        <f>$A1 *5/( 5-(2*DG17))</f>
+        <v>369777.77777777775</v>
+      </c>
+      <c r="DH19">
+        <f>$A1 *5/( 5-(2*DH17))</f>
+        <v>391529.4117647059</v>
+      </c>
+      <c r="DI19">
+        <f>$A1 *5/( 5-(2*DI17))</f>
+        <v>416000</v>
+      </c>
+      <c r="DJ19">
+        <f>$A1 *5/( 5-(2*DJ17))</f>
+        <v>443733.33333333331</v>
+      </c>
+      <c r="DK19">
+        <f>$A1 *5/( 5-(2*DK17))</f>
+        <v>475428.57142857142</v>
+      </c>
+      <c r="DL19">
+        <f>$A1 *5/( 5-(2*DL17))</f>
+        <v>512000</v>
+      </c>
+      <c r="DM19">
+        <f>$A1 *5/( 5-(2*DM17))</f>
+        <v>554666.66666666663</v>
+      </c>
+      <c r="DN19">
+        <f>$A1 *5/( 5-(2*DN17))</f>
+        <v>605090.90909090906</v>
+      </c>
+      <c r="DO19">
+        <f>$A1 *5/( 5-(2*DO17))</f>
+        <v>665600</v>
+      </c>
+      <c r="DP19">
+        <f>$A1 *5/( 5-(2*DP17))</f>
+        <v>739555.5555555555</v>
+      </c>
+      <c r="DQ19">
+        <f>$A1 *5/( 5-(2*DQ17))</f>
+        <v>832000</v>
+      </c>
+      <c r="DR19">
+        <f>$A1 *5/( 5-(2*DR17))</f>
+        <v>950857.14285714284</v>
+      </c>
+      <c r="DS19">
+        <f>$A1 *5/( 5-(2*DS17))</f>
+        <v>1109333.3333333333</v>
+      </c>
+      <c r="DT19">
+        <f>$A1 *5/( 5-(2*DT17))</f>
+        <v>1331200</v>
+      </c>
+      <c r="DU19">
+        <f>$A1 *5/( 5-(2*DU17))</f>
+        <v>1664000</v>
+      </c>
+      <c r="DV19">
+        <f>$A1 *5/( 5-(2*DV17))</f>
+        <v>2218666.6666666665</v>
+      </c>
+      <c r="DW19">
+        <f>$A1 *5/( 5-(2*DW17))</f>
+        <v>3328000</v>
+      </c>
+      <c r="DX19">
+        <f>$A1 *5/( 5-(2*DX17))</f>
+        <v>6656000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:256" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f>$B1 *5/( 5-(2*A17))</f>
+        <v>2800</v>
+      </c>
+      <c r="B20">
+        <f>$B1 *5/( 5-(2*B17))</f>
+        <v>2822.0472440944882</v>
+      </c>
+      <c r="C20">
+        <f>$B1 *5/( 5-(2*C17))</f>
+        <v>2844.4444444444443</v>
+      </c>
+      <c r="D20">
+        <f>$B1 *5/( 5-(2*D17))</f>
+        <v>2867.2</v>
+      </c>
+      <c r="E20">
+        <f>$B1 *5/( 5-(2*E17))</f>
+        <v>2890.3225806451615</v>
+      </c>
+      <c r="F20">
+        <f>$B1 *5/( 5-(2*F17))</f>
+        <v>2913.8211382113823</v>
+      </c>
+      <c r="G20">
+        <f>$B1 *5/( 5-(2*G17))</f>
+        <v>2937.7049180327867</v>
+      </c>
+      <c r="H20">
+        <f>$B1 *5/( 5-(2*H17))</f>
+        <v>2961.9834710743803</v>
+      </c>
+      <c r="I20">
+        <f>$B1 *5/( 5-(2*I17))</f>
+        <v>2986.6666666666665</v>
+      </c>
+      <c r="J20">
+        <f>$B1 *5/( 5-(2*J17))</f>
+        <v>3011.7647058823532</v>
+      </c>
+      <c r="K20">
+        <f>$B1 *5/( 5-(2*K17))</f>
+        <v>3037.2881355932204</v>
+      </c>
+      <c r="L20">
+        <f>$B1 *5/( 5-(2*L17))</f>
+        <v>3063.2478632478633</v>
+      </c>
+      <c r="M20">
+        <f>$B1 *5/( 5-(2*M17))</f>
+        <v>3089.655172413793</v>
+      </c>
+      <c r="N20">
+        <f>$B1 *5/( 5-(2*N17))</f>
+        <v>3116.521739130435</v>
+      </c>
+      <c r="O20">
+        <f>$B1 *5/( 5-(2*O17))</f>
+        <v>3143.8596491228072</v>
+      </c>
+      <c r="P20">
+        <f>$B1 *5/( 5-(2*P17))</f>
+        <v>3171.6814159292035</v>
+      </c>
+      <c r="Q20">
+        <f>$B1 *5/( 5-(2*Q17))</f>
+        <v>3200</v>
+      </c>
+      <c r="R20">
+        <f>$B1 *5/( 5-(2*R17))</f>
+        <v>3228.828828828829</v>
+      </c>
+      <c r="S20">
+        <f>$B1 *5/( 5-(2*S17))</f>
+        <v>3258.181818181818</v>
+      </c>
+      <c r="T20">
+        <f>$B1 *5/( 5-(2*T17))</f>
+        <v>3288.0733944954127</v>
+      </c>
+      <c r="U20">
+        <f>$B1 *5/( 5-(2*U17))</f>
+        <v>3318.5185185185187</v>
+      </c>
+      <c r="V20">
+        <f>$B1 *5/( 5-(2*V17))</f>
+        <v>3349.532710280374</v>
+      </c>
+      <c r="W20">
+        <f>$B1 *5/( 5-(2*W17))</f>
+        <v>3381.132075471698</v>
+      </c>
+      <c r="X20">
+        <f>$B1 *5/( 5-(2*X17))</f>
+        <v>3413.3333333333335</v>
+      </c>
+      <c r="Y20">
+        <f>$B1 *5/( 5-(2*Y17))</f>
+        <v>3446.1538461538462</v>
+      </c>
+      <c r="Z20">
+        <f>$B1 *5/( 5-(2*Z17))</f>
+        <v>3479.6116504854367</v>
+      </c>
+      <c r="AA20">
+        <f>$B1 *5/( 5-(2*AA17))</f>
+        <v>3513.7254901960782</v>
+      </c>
+      <c r="AB20">
+        <f>$B1 *5/( 5-(2*AB17))</f>
+        <v>3548.5148514851485</v>
+      </c>
+      <c r="AC20">
+        <f>$B1 *5/( 5-(2*AC17))</f>
+        <v>3584</v>
+      </c>
+      <c r="AD20">
+        <f>$B1 *5/( 5-(2*AD17))</f>
+        <v>3620.2020202020203</v>
+      </c>
+      <c r="AE20">
+        <f>$B1 *5/( 5-(2*AE17))</f>
+        <v>3657.1428571428573</v>
+      </c>
+      <c r="AF20">
+        <f>$B1 *5/( 5-(2*AF17))</f>
+        <v>3694.8453608247423</v>
+      </c>
+      <c r="AG20">
+        <f>$B1 *5/( 5-(2*AG17))</f>
+        <v>3733.3333333333335</v>
+      </c>
+      <c r="AH20">
+        <f>$B1 *5/( 5-(2*AH17))</f>
+        <v>3772.6315789473683</v>
+      </c>
+      <c r="AI20">
+        <f>$B1 *5/( 5-(2*AI17))</f>
+        <v>3812.7659574468084</v>
+      </c>
+      <c r="AJ20">
+        <f>$B1 *5/( 5-(2*AJ17))</f>
+        <v>3853.7634408602153</v>
+      </c>
+      <c r="AK20">
+        <f>$B1 *5/( 5-(2*AK17))</f>
+        <v>3895.6521739130435</v>
+      </c>
+      <c r="AL20">
+        <f>$B1 *5/( 5-(2*AL17))</f>
+        <v>3938.4615384615386</v>
+      </c>
+      <c r="AM20">
+        <f>$B1 *5/( 5-(2*AM17))</f>
+        <v>3982.2222222222222</v>
+      </c>
+      <c r="AN20">
+        <f>$B1 *5/( 5-(2*AN17))</f>
+        <v>4026.9662921348313</v>
+      </c>
+      <c r="AO20">
+        <f>$B1 *5/( 5-(2*AO17))</f>
+        <v>4072.7272727272725</v>
+      </c>
+      <c r="AP20">
+        <f>$B1 *5/( 5-(2*AP17))</f>
+        <v>4119.5402298850577</v>
+      </c>
+      <c r="AQ20">
+        <f>$B1 *5/( 5-(2*AQ17))</f>
+        <v>4167.4418604651164</v>
+      </c>
+      <c r="AR20">
+        <f>$B1 *5/( 5-(2*AR17))</f>
+        <v>4216.4705882352937</v>
+      </c>
+      <c r="AS20">
+        <f>$B1 *5/( 5-(2*AS17))</f>
+        <v>4266.666666666667</v>
+      </c>
+      <c r="AT20">
+        <f>$B1 *5/( 5-(2*AT17))</f>
+        <v>4318.0722891566265</v>
+      </c>
+      <c r="AU20">
+        <f>$B1 *5/( 5-(2*AU17))</f>
+        <v>4370.7317073170734</v>
+      </c>
+      <c r="AV20">
+        <f>$B1 *5/( 5-(2*AV17))</f>
+        <v>4424.691358024691</v>
+      </c>
+      <c r="AW20">
+        <f>$B1 *5/( 5-(2*AW17))</f>
+        <v>4480</v>
+      </c>
+      <c r="AX20">
+        <f>$B1 *5/( 5-(2*AX17))</f>
+        <v>4536.7088607594933</v>
+      </c>
+      <c r="AY20">
+        <f>$B1 *5/( 5-(2*AY17))</f>
+        <v>4594.8717948717949</v>
+      </c>
+      <c r="AZ20">
+        <f>$B1 *5/( 5-(2*AZ17))</f>
+        <v>4654.545454545455</v>
+      </c>
+      <c r="BA20">
+        <f>$B1 *5/( 5-(2*BA17))</f>
+        <v>4715.7894736842109</v>
+      </c>
+      <c r="BB20">
+        <f>$B1 *5/( 5-(2*BB17))</f>
+        <v>4778.666666666667</v>
+      </c>
+      <c r="BC20">
+        <f>$B1 *5/( 5-(2*BC17))</f>
+        <v>4843.2432432432433</v>
+      </c>
+      <c r="BD20">
+        <f>$B1 *5/( 5-(2*BD17))</f>
+        <v>4909.58904109589</v>
+      </c>
+      <c r="BE20">
+        <f>$B1 *5/( 5-(2*BE17))</f>
+        <v>4977.7777777777774</v>
+      </c>
+      <c r="BF20">
+        <f>$B1 *5/( 5-(2*BF17))</f>
+        <v>5047.8873239436616</v>
+      </c>
+      <c r="BG20">
+        <f>$B1 *5/( 5-(2*BG17))</f>
+        <v>5120</v>
+      </c>
+      <c r="BH20">
+        <f>$B1 *5/( 5-(2*BH17))</f>
+        <v>5194.202898550725</v>
+      </c>
+      <c r="BI20">
+        <f>$B1 *5/( 5-(2*BI17))</f>
+        <v>5270.588235294118</v>
+      </c>
+      <c r="BJ20">
+        <f>$B1 *5/( 5-(2*BJ17))</f>
+        <v>5349.253731343284</v>
+      </c>
+      <c r="BK20">
+        <f>$B1 *5/( 5-(2*BK17))</f>
+        <v>5430.30303030303</v>
+      </c>
+      <c r="BL20">
+        <f>$B1 *5/( 5-(2*BL17))</f>
+        <v>5513.8461538461543</v>
+      </c>
+      <c r="BM20">
+        <f>$B1 *5/( 5-(2*BM17))</f>
+        <v>5600</v>
+      </c>
+      <c r="BN20">
+        <f>$B1 *5/( 5-(2*BN17))</f>
+        <v>5688.8888888888887</v>
+      </c>
+      <c r="BO20">
+        <f>$B1 *5/( 5-(2*BO17))</f>
+        <v>5780.6451612903229</v>
+      </c>
+      <c r="BP20">
+        <f>$B1 *5/( 5-(2*BP17))</f>
+        <v>5875.4098360655735</v>
+      </c>
+      <c r="BQ20">
+        <f>$B1 *5/( 5-(2*BQ17))</f>
+        <v>5973.333333333333</v>
+      </c>
+      <c r="BR20">
+        <f>$B1 *5/( 5-(2*BR17))</f>
+        <v>6074.5762711864409</v>
+      </c>
+      <c r="BS20">
+        <f>$B1 *5/( 5-(2*BS17))</f>
+        <v>6179.3103448275861</v>
+      </c>
+      <c r="BT20">
+        <f>$B1 *5/( 5-(2*BT17))</f>
+        <v>6287.7192982456145</v>
+      </c>
+      <c r="BU20">
+        <f>$B1 *5/( 5-(2*BU17))</f>
+        <v>6400</v>
+      </c>
+      <c r="BV20">
+        <f>$B1 *5/( 5-(2*BV17))</f>
+        <v>6516.363636363636</v>
+      </c>
+      <c r="BW20">
+        <f>$B1 *5/( 5-(2*BW17))</f>
+        <v>6637.0370370370374</v>
+      </c>
+      <c r="BX20">
+        <f>$B1 *5/( 5-(2*BX17))</f>
+        <v>6762.2641509433961</v>
+      </c>
+      <c r="BY20">
+        <f>$B1 *5/( 5-(2*BY17))</f>
+        <v>6892.3076923076924</v>
+      </c>
+      <c r="BZ20">
+        <f>$B1 *5/( 5-(2*BZ17))</f>
+        <v>7027.4509803921565</v>
+      </c>
+      <c r="CA20">
+        <f>$B1 *5/( 5-(2*CA17))</f>
+        <v>7168</v>
+      </c>
+      <c r="CB20">
+        <f>$B1 *5/( 5-(2*CB17))</f>
+        <v>7314.2857142857147</v>
+      </c>
+      <c r="CC20">
+        <f>$B1 *5/( 5-(2*CC17))</f>
+        <v>7466.666666666667</v>
+      </c>
+      <c r="CD20">
+        <f>$B1 *5/( 5-(2*CD17))</f>
+        <v>7625.5319148936169</v>
+      </c>
+      <c r="CE20">
+        <f>$B1 *5/( 5-(2*CE17))</f>
+        <v>7791.304347826087</v>
+      </c>
+      <c r="CF20">
+        <f>$B1 *5/( 5-(2*CF17))</f>
+        <v>7964.4444444444443</v>
+      </c>
+      <c r="CG20">
+        <f>$B1 *5/( 5-(2*CG17))</f>
+        <v>8145.454545454545</v>
+      </c>
+      <c r="CH20">
+        <f>$B1 *5/( 5-(2*CH17))</f>
+        <v>8334.8837209302328</v>
+      </c>
+      <c r="CI20">
+        <f>$B1 *5/( 5-(2*CI17))</f>
+        <v>8533.3333333333339</v>
+      </c>
+      <c r="CJ20">
+        <f>$B1 *5/( 5-(2*CJ17))</f>
+        <v>8741.4634146341468</v>
+      </c>
+      <c r="CK20">
+        <f>$B1 *5/( 5-(2*CK17))</f>
+        <v>8960</v>
+      </c>
+      <c r="CL20">
+        <f>$B1 *5/( 5-(2*CL17))</f>
+        <v>9189.7435897435898</v>
+      </c>
+      <c r="CM20">
+        <f>$B1 *5/( 5-(2*CM17))</f>
+        <v>9431.5789473684217</v>
+      </c>
+      <c r="CN20">
+        <f>$B1 *5/( 5-(2*CN17))</f>
+        <v>9686.4864864864867</v>
+      </c>
+      <c r="CO20">
+        <f>$B1 *5/( 5-(2*CO17))</f>
+        <v>9955.5555555555547</v>
+      </c>
+      <c r="CP20">
+        <f>$B1 *5/( 5-(2*CP17))</f>
+        <v>10240</v>
+      </c>
+      <c r="CQ20">
+        <f>$B1 *5/( 5-(2*CQ17))</f>
+        <v>10541.176470588236</v>
+      </c>
+      <c r="CR20">
+        <f>$B1 *5/( 5-(2*CR17))</f>
+        <v>10860.60606060606</v>
+      </c>
+      <c r="CS20">
+        <f>$B1 *5/( 5-(2*CS17))</f>
+        <v>11200</v>
+      </c>
+      <c r="CT20">
+        <f>$B1 *5/( 5-(2*CT17))</f>
+        <v>11561.290322580646</v>
+      </c>
+      <c r="CU20">
+        <f>$B1 *5/( 5-(2*CU17))</f>
+        <v>11946.666666666666</v>
+      </c>
+      <c r="CV20">
+        <f>$B1 *5/( 5-(2*CV17))</f>
+        <v>12358.620689655172</v>
+      </c>
+      <c r="CW20">
+        <f>$B1 *5/( 5-(2*CW17))</f>
+        <v>12800</v>
+      </c>
+      <c r="CX20">
+        <f>$B1 *5/( 5-(2*CX17))</f>
+        <v>13274.074074074075</v>
+      </c>
+      <c r="CY20">
+        <f>$B1 *5/( 5-(2*CY17))</f>
+        <v>13784.615384615385</v>
+      </c>
+      <c r="CZ20">
+        <f>$B1 *5/( 5-(2*CZ17))</f>
+        <v>14336</v>
+      </c>
+      <c r="DA20">
+        <f>$B1 *5/( 5-(2*DA17))</f>
+        <v>14933.333333333334</v>
+      </c>
+      <c r="DB20">
+        <f>$B1 *5/( 5-(2*DB17))</f>
+        <v>15582.608695652174</v>
+      </c>
+      <c r="DC20">
+        <f>$B1 *5/( 5-(2*DC17))</f>
+        <v>16290.90909090909</v>
+      </c>
+      <c r="DD20">
+        <f>$B1 *5/( 5-(2*DD17))</f>
+        <v>17066.666666666668</v>
+      </c>
+      <c r="DE20">
+        <f>$B1 *5/( 5-(2*DE17))</f>
+        <v>17920</v>
+      </c>
+      <c r="DF20">
+        <f>$B1 *5/( 5-(2*DF17))</f>
+        <v>18863.157894736843</v>
+      </c>
+      <c r="DG20">
+        <f>$B1 *5/( 5-(2*DG17))</f>
+        <v>19911.111111111109</v>
+      </c>
+      <c r="DH20">
+        <f>$B1 *5/( 5-(2*DH17))</f>
+        <v>21082.352941176472</v>
+      </c>
+      <c r="DI20">
+        <f>$B1 *5/( 5-(2*DI17))</f>
+        <v>22400</v>
+      </c>
+      <c r="DJ20">
+        <f>$B1 *5/( 5-(2*DJ17))</f>
+        <v>23893.333333333332</v>
+      </c>
+      <c r="DK20">
+        <f>$B1 *5/( 5-(2*DK17))</f>
+        <v>25600</v>
+      </c>
+      <c r="DL20">
+        <f>$B1 *5/( 5-(2*DL17))</f>
+        <v>27569.23076923077</v>
+      </c>
+      <c r="DM20">
+        <f>$B1 *5/( 5-(2*DM17))</f>
+        <v>29866.666666666668</v>
+      </c>
+      <c r="DN20">
+        <f>$B1 *5/( 5-(2*DN17))</f>
+        <v>32581.81818181818</v>
+      </c>
+      <c r="DO20">
+        <f>$B1 *5/( 5-(2*DO17))</f>
+        <v>35840</v>
+      </c>
+      <c r="DP20">
+        <f>$B1 *5/( 5-(2*DP17))</f>
+        <v>39822.222222222219</v>
+      </c>
+      <c r="DQ20">
+        <f>$B1 *5/( 5-(2*DQ17))</f>
+        <v>44800</v>
+      </c>
+      <c r="DR20">
+        <f>$B1 *5/( 5-(2*DR17))</f>
+        <v>51200</v>
+      </c>
+      <c r="DS20">
+        <f>$B1 *5/( 5-(2*DS17))</f>
+        <v>59733.333333333336</v>
+      </c>
+      <c r="DT20">
+        <f>$B1 *5/( 5-(2*DT17))</f>
+        <v>71680</v>
+      </c>
+      <c r="DU20">
+        <f>$B1 *5/( 5-(2*DU17))</f>
+        <v>89600</v>
+      </c>
+      <c r="DV20">
+        <f>$B1 *5/( 5-(2*DV17))</f>
+        <v>119466.66666666667</v>
+      </c>
+      <c r="DW20">
+        <f>$B1 *5/( 5-(2*DW17))</f>
+        <v>179200</v>
+      </c>
+      <c r="DX20">
+        <f>$B1 *5/( 5-(2*DX17))</f>
+        <v>358400</v>
+      </c>
+    </row>
+    <row r="21" spans="1:256" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f>$C1 *5/( 5-(2*A17))</f>
+        <v>8300</v>
+      </c>
+      <c r="B21">
+        <f>$C1 *5/( 5-(2*B17))</f>
+        <v>8365.354330708662</v>
+      </c>
+      <c r="C21">
+        <f>$C1 *5/( 5-(2*C17))</f>
+        <v>8431.7460317460318</v>
+      </c>
+      <c r="D21">
+        <f>$C1 *5/( 5-(2*D17))</f>
+        <v>8499.2000000000007</v>
+      </c>
+      <c r="E21">
+        <f>$C1 *5/( 5-(2*E17))</f>
+        <v>8567.7419354838712</v>
+      </c>
+      <c r="F21">
+        <f>$C1 *5/( 5-(2*F17))</f>
+        <v>8637.3983739837404</v>
+      </c>
+      <c r="G21">
+        <f>$C1 *5/( 5-(2*G17))</f>
+        <v>8708.1967213114749</v>
+      </c>
+      <c r="H21">
+        <f>$C1 *5/( 5-(2*H17))</f>
+        <v>8780.1652892561979</v>
+      </c>
+      <c r="I21">
+        <f>$C1 *5/( 5-(2*I17))</f>
+        <v>8853.3333333333339</v>
+      </c>
+      <c r="J21">
+        <f>$C1 *5/( 5-(2*J17))</f>
+        <v>8927.731092436974</v>
+      </c>
+      <c r="K21">
+        <f>$C1 *5/( 5-(2*K17))</f>
+        <v>9003.3898305084749</v>
+      </c>
+      <c r="L21">
+        <f>$C1 *5/( 5-(2*L17))</f>
+        <v>9080.3418803418808</v>
+      </c>
+      <c r="M21">
+        <f>$C1 *5/( 5-(2*M17))</f>
+        <v>9158.6206896551721</v>
+      </c>
+      <c r="N21">
+        <f>$C1 *5/( 5-(2*N17))</f>
+        <v>9238.2608695652179</v>
+      </c>
+      <c r="O21">
+        <f>$C1 *5/( 5-(2*O17))</f>
+        <v>9319.2982456140344</v>
+      </c>
+      <c r="P21">
+        <f>$C1 *5/( 5-(2*P17))</f>
+        <v>9401.7699115044252</v>
+      </c>
+      <c r="Q21">
+        <f>$C1 *5/( 5-(2*Q17))</f>
+        <v>9485.7142857142862</v>
+      </c>
+      <c r="R21">
+        <f>$C1 *5/( 5-(2*R17))</f>
+        <v>9571.1711711711705</v>
+      </c>
+      <c r="S21">
+        <f>$C1 *5/( 5-(2*S17))</f>
+        <v>9658.181818181818</v>
+      </c>
+      <c r="T21">
+        <f>$C1 *5/( 5-(2*T17))</f>
+        <v>9746.7889908256875</v>
+      </c>
+      <c r="U21">
+        <f>$C1 *5/( 5-(2*U17))</f>
+        <v>9837.0370370370365</v>
+      </c>
+      <c r="V21">
+        <f>$C1 *5/( 5-(2*V17))</f>
+        <v>9928.9719626168226</v>
+      </c>
+      <c r="W21">
+        <f>$C1 *5/( 5-(2*W17))</f>
+        <v>10022.641509433963</v>
+      </c>
+      <c r="X21">
+        <f>$C1 *5/( 5-(2*X17))</f>
+        <v>10118.095238095239</v>
+      </c>
+      <c r="Y21">
+        <f>$C1 *5/( 5-(2*Y17))</f>
+        <v>10215.384615384615</v>
+      </c>
+      <c r="Z21">
+        <f>$C1 *5/( 5-(2*Z17))</f>
+        <v>10314.563106796117</v>
+      </c>
+      <c r="AA21">
+        <f>$C1 *5/( 5-(2*AA17))</f>
+        <v>10415.686274509804</v>
+      </c>
+      <c r="AB21">
+        <f>$C1 *5/( 5-(2*AB17))</f>
+        <v>10518.81188118812</v>
+      </c>
+      <c r="AC21">
+        <f>$C1 *5/( 5-(2*AC17))</f>
+        <v>10624</v>
+      </c>
+      <c r="AD21">
+        <f>$C1 *5/( 5-(2*AD17))</f>
+        <v>10731.313131313131</v>
+      </c>
+      <c r="AE21">
+        <f>$C1 *5/( 5-(2*AE17))</f>
+        <v>10840.816326530612</v>
+      </c>
+      <c r="AF21">
+        <f>$C1 *5/( 5-(2*AF17))</f>
+        <v>10952.577319587628</v>
+      </c>
+      <c r="AG21">
+        <f>$C1 *5/( 5-(2*AG17))</f>
+        <v>11066.666666666666</v>
+      </c>
+      <c r="AH21">
+        <f>$C1 *5/( 5-(2*AH17))</f>
+        <v>11183.157894736842</v>
+      </c>
+      <c r="AI21">
+        <f>$C1 *5/( 5-(2*AI17))</f>
+        <v>11302.127659574468</v>
+      </c>
+      <c r="AJ21">
+        <f>$C1 *5/( 5-(2*AJ17))</f>
+        <v>11423.655913978495</v>
+      </c>
+      <c r="AK21">
+        <f>$C1 *5/( 5-(2*AK17))</f>
+        <v>11547.826086956522</v>
+      </c>
+      <c r="AL21">
+        <f>$C1 *5/( 5-(2*AL17))</f>
+        <v>11674.725274725275</v>
+      </c>
+      <c r="AM21">
+        <f>$C1 *5/( 5-(2*AM17))</f>
+        <v>11804.444444444445</v>
+      </c>
+      <c r="AN21">
+        <f>$C1 *5/( 5-(2*AN17))</f>
+        <v>11937.078651685393</v>
+      </c>
+      <c r="AO21">
+        <f>$C1 *5/( 5-(2*AO17))</f>
+        <v>12072.727272727272</v>
+      </c>
+      <c r="AP21">
+        <f>$C1 *5/( 5-(2*AP17))</f>
+        <v>12211.494252873563</v>
+      </c>
+      <c r="AQ21">
+        <f>$C1 *5/( 5-(2*AQ17))</f>
+        <v>12353.488372093023</v>
+      </c>
+      <c r="AR21">
+        <f>$C1 *5/( 5-(2*AR17))</f>
+        <v>12498.823529411764</v>
+      </c>
+      <c r="AS21">
+        <f>$C1 *5/( 5-(2*AS17))</f>
+        <v>12647.619047619048</v>
+      </c>
+      <c r="AT21">
+        <f>$C1 *5/( 5-(2*AT17))</f>
+        <v>12800</v>
+      </c>
+      <c r="AU21">
+        <f>$C1 *5/( 5-(2*AU17))</f>
+        <v>12956.09756097561</v>
+      </c>
+      <c r="AV21">
+        <f>$C1 *5/( 5-(2*AV17))</f>
+        <v>13116.04938271605</v>
+      </c>
+      <c r="AW21">
+        <f>$C1 *5/( 5-(2*AW17))</f>
+        <v>13280</v>
+      </c>
+      <c r="AX21">
+        <f>$C1 *5/( 5-(2*AX17))</f>
+        <v>13448.101265822785</v>
+      </c>
+      <c r="AY21">
+        <f>$C1 *5/( 5-(2*AY17))</f>
+        <v>13620.51282051282</v>
+      </c>
+      <c r="AZ21">
+        <f>$C1 *5/( 5-(2*AZ17))</f>
+        <v>13797.402597402597</v>
+      </c>
+      <c r="BA21">
+        <f>$C1 *5/( 5-(2*BA17))</f>
+        <v>13978.947368421053</v>
+      </c>
+      <c r="BB21">
+        <f>$C1 *5/( 5-(2*BB17))</f>
+        <v>14165.333333333334</v>
+      </c>
+      <c r="BC21">
+        <f>$C1 *5/( 5-(2*BC17))</f>
+        <v>14356.756756756757</v>
+      </c>
+      <c r="BD21">
+        <f>$C1 *5/( 5-(2*BD17))</f>
+        <v>14553.424657534246</v>
+      </c>
+      <c r="BE21">
+        <f>$C1 *5/( 5-(2*BE17))</f>
+        <v>14755.555555555555</v>
+      </c>
+      <c r="BF21">
+        <f>$C1 *5/( 5-(2*BF17))</f>
+        <v>14963.380281690141</v>
+      </c>
+      <c r="BG21">
+        <f>$C1 *5/( 5-(2*BG17))</f>
+        <v>15177.142857142857</v>
+      </c>
+      <c r="BH21">
+        <f>$C1 *5/( 5-(2*BH17))</f>
+        <v>15397.101449275362</v>
+      </c>
+      <c r="BI21">
+        <f>$C1 *5/( 5-(2*BI17))</f>
+        <v>15623.529411764706</v>
+      </c>
+      <c r="BJ21">
+        <f>$C1 *5/( 5-(2*BJ17))</f>
+        <v>15856.716417910447</v>
+      </c>
+      <c r="BK21">
+        <f>$C1 *5/( 5-(2*BK17))</f>
+        <v>16096.969696969696</v>
+      </c>
+      <c r="BL21">
+        <f>$C1 *5/( 5-(2*BL17))</f>
+        <v>16344.615384615385</v>
+      </c>
+      <c r="BM21">
+        <f>$C1 *5/( 5-(2*BM17))</f>
+        <v>16600</v>
+      </c>
+      <c r="BN21">
+        <f>$C1 *5/( 5-(2*BN17))</f>
+        <v>16863.492063492064</v>
+      </c>
+      <c r="BO21">
+        <f>$C1 *5/( 5-(2*BO17))</f>
+        <v>17135.483870967742</v>
+      </c>
+      <c r="BP21">
+        <f>$C1 *5/( 5-(2*BP17))</f>
+        <v>17416.39344262295</v>
+      </c>
+      <c r="BQ21">
+        <f>$C1 *5/( 5-(2*BQ17))</f>
+        <v>17706.666666666668</v>
+      </c>
+      <c r="BR21">
+        <f>$C1 *5/( 5-(2*BR17))</f>
+        <v>18006.77966101695</v>
+      </c>
+      <c r="BS21">
+        <f>$C1 *5/( 5-(2*BS17))</f>
+        <v>18317.241379310344</v>
+      </c>
+      <c r="BT21">
+        <f>$C1 *5/( 5-(2*BT17))</f>
+        <v>18638.596491228069</v>
+      </c>
+      <c r="BU21">
+        <f>$C1 *5/( 5-(2*BU17))</f>
+        <v>18971.428571428572</v>
+      </c>
+      <c r="BV21">
+        <f>$C1 *5/( 5-(2*BV17))</f>
+        <v>19316.363636363636</v>
+      </c>
+      <c r="BW21">
+        <f>$C1 *5/( 5-(2*BW17))</f>
+        <v>19674.074074074073</v>
+      </c>
+      <c r="BX21">
+        <f>$C1 *5/( 5-(2*BX17))</f>
+        <v>20045.283018867925</v>
+      </c>
+      <c r="BY21">
+        <f>$C1 *5/( 5-(2*BY17))</f>
+        <v>20430.76923076923</v>
+      </c>
+      <c r="BZ21">
+        <f>$C1 *5/( 5-(2*BZ17))</f>
+        <v>20831.372549019608</v>
+      </c>
+      <c r="CA21">
+        <f>$C1 *5/( 5-(2*CA17))</f>
+        <v>21248</v>
+      </c>
+      <c r="CB21">
+        <f>$C1 *5/( 5-(2*CB17))</f>
+        <v>21681.632653061224</v>
+      </c>
+      <c r="CC21">
+        <f>$C1 *5/( 5-(2*CC17))</f>
+        <v>22133.333333333332</v>
+      </c>
+      <c r="CD21">
+        <f>$C1 *5/( 5-(2*CD17))</f>
+        <v>22604.255319148935</v>
+      </c>
+      <c r="CE21">
+        <f>$C1 *5/( 5-(2*CE17))</f>
+        <v>23095.652173913044</v>
+      </c>
+      <c r="CF21">
+        <f>$C1 *5/( 5-(2*CF17))</f>
+        <v>23608.888888888891</v>
+      </c>
+      <c r="CG21">
+        <f>$C1 *5/( 5-(2*CG17))</f>
+        <v>24145.454545454544</v>
+      </c>
+      <c r="CH21">
+        <f>$C1 *5/( 5-(2*CH17))</f>
+        <v>24706.976744186046</v>
+      </c>
+      <c r="CI21">
+        <f>$C1 *5/( 5-(2*CI17))</f>
+        <v>25295.238095238095</v>
+      </c>
+      <c r="CJ21">
+        <f>$C1 *5/( 5-(2*CJ17))</f>
+        <v>25912.195121951219</v>
+      </c>
+      <c r="CK21">
+        <f>$C1 *5/( 5-(2*CK17))</f>
+        <v>26560</v>
+      </c>
+      <c r="CL21">
+        <f>$C1 *5/( 5-(2*CL17))</f>
+        <v>27241.025641025641</v>
+      </c>
+      <c r="CM21">
+        <f>$C1 *5/( 5-(2*CM17))</f>
+        <v>27957.894736842107</v>
+      </c>
+      <c r="CN21">
+        <f>$C1 *5/( 5-(2*CN17))</f>
+        <v>28713.513513513513</v>
+      </c>
+      <c r="CO21">
+        <f>$C1 *5/( 5-(2*CO17))</f>
+        <v>29511.111111111109</v>
+      </c>
+      <c r="CP21">
+        <f>$C1 *5/( 5-(2*CP17))</f>
+        <v>30354.285714285714</v>
+      </c>
+      <c r="CQ21">
+        <f>$C1 *5/( 5-(2*CQ17))</f>
+        <v>31247.058823529413</v>
+      </c>
+      <c r="CR21">
+        <f>$C1 *5/( 5-(2*CR17))</f>
+        <v>32193.939393939392</v>
+      </c>
+      <c r="CS21">
+        <f>$C1 *5/( 5-(2*CS17))</f>
+        <v>33200</v>
+      </c>
+      <c r="CT21">
+        <f>$C1 *5/( 5-(2*CT17))</f>
+        <v>34270.967741935485</v>
+      </c>
+      <c r="CU21">
+        <f>$C1 *5/( 5-(2*CU17))</f>
+        <v>35413.333333333336</v>
+      </c>
+      <c r="CV21">
+        <f>$C1 *5/( 5-(2*CV17))</f>
+        <v>36634.482758620688</v>
+      </c>
+      <c r="CW21">
+        <f>$C1 *5/( 5-(2*CW17))</f>
+        <v>37942.857142857145</v>
+      </c>
+      <c r="CX21">
+        <f>$C1 *5/( 5-(2*CX17))</f>
+        <v>39348.148148148146</v>
+      </c>
+      <c r="CY21">
+        <f>$C1 *5/( 5-(2*CY17))</f>
+        <v>40861.538461538461</v>
+      </c>
+      <c r="CZ21">
+        <f>$C1 *5/( 5-(2*CZ17))</f>
+        <v>42496</v>
+      </c>
+      <c r="DA21">
+        <f>$C1 *5/( 5-(2*DA17))</f>
+        <v>44266.666666666664</v>
+      </c>
+      <c r="DB21">
+        <f>$C1 *5/( 5-(2*DB17))</f>
+        <v>46191.304347826088</v>
+      </c>
+      <c r="DC21">
+        <f>$C1 *5/( 5-(2*DC17))</f>
+        <v>48290.909090909088</v>
+      </c>
+      <c r="DD21">
+        <f>$C1 *5/( 5-(2*DD17))</f>
+        <v>50590.476190476191</v>
+      </c>
+      <c r="DE21">
+        <f>$C1 *5/( 5-(2*DE17))</f>
+        <v>53120</v>
+      </c>
+      <c r="DF21">
+        <f>$C1 *5/( 5-(2*DF17))</f>
+        <v>55915.789473684214</v>
+      </c>
+      <c r="DG21">
+        <f>$C1 *5/( 5-(2*DG17))</f>
+        <v>59022.222222222219</v>
+      </c>
+      <c r="DH21">
+        <f>$C1 *5/( 5-(2*DH17))</f>
+        <v>62494.117647058825</v>
+      </c>
+      <c r="DI21">
+        <f>$C1 *5/( 5-(2*DI17))</f>
+        <v>66400</v>
+      </c>
+      <c r="DJ21">
+        <f>$C1 *5/( 5-(2*DJ17))</f>
+        <v>70826.666666666672</v>
+      </c>
+      <c r="DK21">
+        <f>$C1 *5/( 5-(2*DK17))</f>
+        <v>75885.71428571429</v>
+      </c>
+      <c r="DL21">
+        <f>$C1 *5/( 5-(2*DL17))</f>
+        <v>81723.076923076922</v>
+      </c>
+      <c r="DM21">
+        <f>$C1 *5/( 5-(2*DM17))</f>
+        <v>88533.333333333328</v>
+      </c>
+      <c r="DN21">
+        <f>$C1 *5/( 5-(2*DN17))</f>
+        <v>96581.818181818177</v>
+      </c>
+      <c r="DO21">
+        <f>$C1 *5/( 5-(2*DO17))</f>
+        <v>106240</v>
+      </c>
+      <c r="DP21">
+        <f>$C1 *5/( 5-(2*DP17))</f>
+        <v>118044.44444444444</v>
+      </c>
+      <c r="DQ21">
+        <f>$C1 *5/( 5-(2*DQ17))</f>
+        <v>132800</v>
+      </c>
+      <c r="DR21">
+        <f>$C1 *5/( 5-(2*DR17))</f>
+        <v>151771.42857142858</v>
+      </c>
+      <c r="DS21">
+        <f>$C1 *5/( 5-(2*DS17))</f>
+        <v>177066.66666666666</v>
+      </c>
+      <c r="DT21">
+        <f>$C1 *5/( 5-(2*DT17))</f>
+        <v>212480</v>
+      </c>
+      <c r="DU21">
+        <f>$C1 *5/( 5-(2*DU17))</f>
+        <v>265600</v>
+      </c>
+      <c r="DV21">
+        <f>$C1 *5/( 5-(2*DV17))</f>
+        <v>354133.33333333331</v>
+      </c>
+      <c r="DW21">
+        <f>$C1 *5/( 5-(2*DW17))</f>
+        <v>531200</v>
+      </c>
+      <c r="DX21">
+        <f>$C1 *5/( 5-(2*DX17))</f>
+        <v>1062400</v>
       </c>
     </row>
   </sheetData>
